--- a/i18n/im_i18n.xlsx
+++ b/i18n/im_i18n.xlsx
@@ -398,3999 +398,7588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>key</v>
+      </c>
+      <c r="B1" t="str">
         <v>gitlab</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>zh</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>en</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>file</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>line</v>
-      </c>
-      <c r="F1" t="str">
-        <v>key</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>链接</v>
+        <v>i18n_im_9e910da621148e4c</v>
       </c>
       <c r="B2" t="str">
-        <v>发送成功</v>
+        <v>链接</v>
       </c>
       <c r="C2" t="str">
-        <v>Send success !</v>
+        <v>选择群成员</v>
       </c>
       <c r="D2" t="str">
-        <v>standard/component/BaseMessage.tsx</v>
-      </c>
-      <c r="E2">
-        <v>208</v>
-      </c>
-      <c r="F2" t="str">
-        <v>i18n_im_34c680feb9c93f0c</v>
+        <v>Select group members</v>
+      </c>
+      <c r="E2" t="str">
+        <v>standard/component/AvatarList.tsx</v>
+      </c>
+      <c r="F2">
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>链接</v>
+        <v>i18n_im_9e910da621148e4c</v>
       </c>
       <c r="B3" t="str">
-        <v>转发</v>
+        <v>链接</v>
       </c>
       <c r="C3" t="str">
-        <v>Share</v>
+        <v>选择群成员</v>
       </c>
       <c r="D3" t="str">
-        <v>standard/component/BottomBar.tsx</v>
-      </c>
-      <c r="E3">
-        <v>84</v>
-      </c>
-      <c r="F3" t="str">
-        <v>i18n_im_02107ba378e21710</v>
+        <v>Select group members</v>
+      </c>
+      <c r="E3" t="str">
+        <v>standard/component/AvatarList.tsx</v>
+      </c>
+      <c r="F3">
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>链接</v>
+        <v>i18n_im_34c680feb9c93f0c</v>
       </c>
       <c r="B4" t="str">
-        <v>松开 结束</v>
+        <v>链接</v>
       </c>
       <c r="C4" t="str">
-        <v>Release to stop</v>
+        <v>发送成功</v>
       </c>
       <c r="D4" t="str">
-        <v>standard/component/BottomBar.tsx</v>
-      </c>
-      <c r="E4">
-        <v>178</v>
-      </c>
-      <c r="F4" t="str">
-        <v>i18n_im_9be40c5aa39e8740</v>
+        <v>Send success !</v>
+      </c>
+      <c r="E4" t="str">
+        <v>standard/component/BaseMessage.tsx</v>
+      </c>
+      <c r="F4">
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>链接</v>
+        <v>i18n_im_34c680feb9c93f0c</v>
       </c>
       <c r="B5" t="str">
-        <v>按住 说话</v>
+        <v>链接</v>
       </c>
       <c r="C5" t="str">
-        <v>Hold to talk</v>
+        <v>发送成功</v>
       </c>
       <c r="D5" t="str">
-        <v>standard/component/BottomBar.tsx</v>
-      </c>
-      <c r="E5">
-        <v>178</v>
-      </c>
-      <c r="F5" t="str">
-        <v>i18n_im_022ed89e94a88dd4</v>
+        <v>Send success !</v>
+      </c>
+      <c r="E5" t="str">
+        <v>standard/component/BaseMessage.tsx</v>
+      </c>
+      <c r="F5">
+        <v>208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>链接</v>
+        <v>i18n_im_02107ba378e21710</v>
       </c>
       <c r="B6" t="str">
-        <v>[图片]</v>
+        <v>链接</v>
       </c>
       <c r="C6" t="str">
-        <v>[picture]</v>
+        <v>转发</v>
       </c>
       <c r="D6" t="str">
+        <v>Share</v>
+      </c>
+      <c r="E6" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E6">
-        <v>198</v>
-      </c>
-      <c r="F6" t="str">
-        <v>i18n_im_a71f445d35779ede</v>
+      <c r="F6">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>链接</v>
+        <v>i18n_im_02107ba378e21710</v>
       </c>
       <c r="B7" t="str">
-        <v>[视频]</v>
+        <v>链接</v>
       </c>
       <c r="C7" t="str">
-        <v>[video]</v>
+        <v>转发</v>
       </c>
       <c r="D7" t="str">
+        <v>Share</v>
+      </c>
+      <c r="E7" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E7">
-        <v>201</v>
-      </c>
-      <c r="F7" t="str">
-        <v>i18n_im_da5d0399eba80b23</v>
+      <c r="F7">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>链接</v>
+        <v>i18n_im_9be40c5aa39e8740</v>
       </c>
       <c r="B8" t="str">
-        <v>[位置]</v>
+        <v>链接</v>
       </c>
       <c r="C8" t="str">
-        <v>[location]</v>
+        <v>松开 结束</v>
       </c>
       <c r="D8" t="str">
+        <v>Release to stop</v>
+      </c>
+      <c r="E8" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E8">
-        <v>204</v>
-      </c>
-      <c r="F8" t="str">
-        <v>i18n_im_4d65f3d737a1a175</v>
+      <c r="F8">
+        <v>178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>链接</v>
+        <v>i18n_im_022ed89e94a88dd4</v>
       </c>
       <c r="B9" t="str">
-        <v>[文件]</v>
+        <v>链接</v>
       </c>
       <c r="C9" t="str">
-        <v>[file]</v>
+        <v>按住 说话</v>
       </c>
       <c r="D9" t="str">
+        <v>Hold to talk</v>
+      </c>
+      <c r="E9" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E9">
-        <v>207</v>
-      </c>
-      <c r="F9" t="str">
-        <v>i18n_im_54e20fcfb5abb867</v>
+      <c r="F9">
+        <v>178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>链接</v>
+        <v>i18n_im_9be40c5aa39e8740</v>
       </c>
       <c r="B10" t="str">
-        <v>[资料]</v>
+        <v>链接</v>
       </c>
       <c r="C10" t="str">
-        <v>Info</v>
+        <v>松开 结束</v>
       </c>
       <c r="D10" t="str">
+        <v>Release to stop</v>
+      </c>
+      <c r="E10" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E10">
-        <v>210</v>
-      </c>
-      <c r="F10" t="str">
-        <v>i18n_im_36e69ffa241b5f91</v>
+      <c r="F10">
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>链接</v>
+        <v>i18n_im_022ed89e94a88dd4</v>
       </c>
       <c r="B11" t="str">
-        <v>发送</v>
+        <v>链接</v>
       </c>
       <c r="C11" t="str">
-        <v>Post</v>
+        <v>按住 说话</v>
       </c>
       <c r="D11" t="str">
+        <v>Hold to talk</v>
+      </c>
+      <c r="E11" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E11">
-        <v>273</v>
-      </c>
-      <c r="F11" t="str">
-        <v>i18n_im_edecf0ae6e5144f9</v>
+      <c r="F11">
+        <v>178</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>链接</v>
+        <v>i18n_im_a71f445d35779ede</v>
       </c>
       <c r="B12" t="str">
-        <v>录音时间太短</v>
+        <v>链接</v>
       </c>
       <c r="C12" t="str">
-        <v>Length of recording is too short</v>
+        <v>[图片]</v>
       </c>
       <c r="D12" t="str">
+        <v>[picture]</v>
+      </c>
+      <c r="E12" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E12">
-        <v>342</v>
-      </c>
-      <c r="F12" t="str">
-        <v>i18n_im_a59f5356a3fad0af</v>
+      <c r="F12">
+        <v>198</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>链接</v>
+        <v>i18n_im_a71f445d35779ede</v>
       </c>
       <c r="B13" t="str">
-        <v>所有人</v>
+        <v>链接</v>
       </c>
       <c r="C13" t="str">
-        <v>All</v>
+        <v>[图片]</v>
       </c>
       <c r="D13" t="str">
+        <v>[picture]</v>
+      </c>
+      <c r="E13" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E13">
-        <v>409</v>
-      </c>
-      <c r="F13" t="str">
-        <v>i18n_im_06d9ae036b346af3</v>
+      <c r="F13">
+        <v>198</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>链接</v>
+        <v>i18n_im_da5d0399eba80b23</v>
       </c>
       <c r="B14" t="str">
-        <v>选择@的人</v>
+        <v>链接</v>
       </c>
       <c r="C14" t="str">
-        <v>People who choose @</v>
+        <v>[视频]</v>
       </c>
       <c r="D14" t="str">
+        <v>[video]</v>
+      </c>
+      <c r="E14" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E14">
-        <v>437</v>
-      </c>
-      <c r="F14" t="str">
-        <v>i18n_im_3754200aefd1fa17</v>
+      <c r="F14">
+        <v>201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>链接</v>
+        <v>i18n_im_da5d0399eba80b23</v>
       </c>
       <c r="B15" t="str">
-        <v>您未设置录音权限，请去设置中打开</v>
+        <v>链接</v>
       </c>
       <c r="C15" t="str">
-        <v>You have not set recording permissions, please go to Settings to open</v>
+        <v>[视频]</v>
       </c>
       <c r="D15" t="str">
+        <v>[video]</v>
+      </c>
+      <c r="E15" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E15">
-        <v>505</v>
-      </c>
-      <c r="F15" t="str">
-        <v>i18n_im_0089f124e7fec588</v>
+      <c r="F15">
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>链接</v>
+        <v>i18n_im_4d65f3d737a1a175</v>
       </c>
       <c r="B16" t="str">
-        <v>您未设置录音权限，请去设置中打开</v>
+        <v>链接</v>
       </c>
       <c r="C16" t="str">
-        <v>You have not set recording permissions, please go to Settings to open</v>
+        <v>[位置]</v>
       </c>
       <c r="D16" t="str">
+        <v>[location]</v>
+      </c>
+      <c r="E16" t="str">
         <v>standard/component/BottomBar.tsx</v>
       </c>
-      <c r="E16">
-        <v>522</v>
-      </c>
-      <c r="F16" t="str">
-        <v>i18n_im_0089f124e7fec588</v>
+      <c r="F16">
+        <v>204</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>链接</v>
+        <v>i18n_im_4d65f3d737a1a175</v>
       </c>
       <c r="B17" t="str">
-        <v>[有人@我]</v>
+        <v>链接</v>
       </c>
       <c r="C17" t="str">
-        <v>Someone mentioned me</v>
+        <v>[位置]</v>
       </c>
       <c r="D17" t="str">
-        <v>standard/component/ConversationCell.tsx</v>
-      </c>
-      <c r="E17">
-        <v>99</v>
-      </c>
-      <c r="F17" t="str">
-        <v>i18n_im_cf26755fe80e90bf</v>
+        <v>[location]</v>
+      </c>
+      <c r="E17" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F17">
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>链接</v>
+        <v>i18n_im_54e20fcfb5abb867</v>
       </c>
       <c r="B18" t="str">
-        <v>条新消息</v>
+        <v>链接</v>
       </c>
       <c r="C18" t="str">
-        <v>new message</v>
+        <v>[文件]</v>
       </c>
       <c r="D18" t="str">
-        <v>standard/component/DetailListView.tsx</v>
-      </c>
-      <c r="E18">
-        <v>109</v>
-      </c>
-      <c r="F18" t="str">
-        <v>i18n_im_7ec815f7658576e2</v>
+        <v>[file]</v>
+      </c>
+      <c r="E18" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F18">
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>链接</v>
+        <v>i18n_im_54e20fcfb5abb867</v>
       </c>
       <c r="B19" t="str">
-        <v>返回顶部</v>
+        <v>链接</v>
       </c>
       <c r="C19" t="str">
-        <v>Return to top of page</v>
+        <v>[文件]</v>
       </c>
       <c r="D19" t="str">
-        <v>standard/component/FixedSectionList.tsx</v>
-      </c>
-      <c r="E19">
-        <v>160</v>
-      </c>
-      <c r="F19" t="str">
-        <v>i18n_im_071b374af1b861ac</v>
+        <v>[file]</v>
+      </c>
+      <c r="E19" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F19">
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>链接</v>
+        <v>i18n_im_36e69ffa241b5f91</v>
       </c>
       <c r="B20" t="str">
-        <v>没有结果</v>
+        <v>链接</v>
       </c>
       <c r="C20" t="str">
-        <v>No results.</v>
+        <v>[资料]</v>
       </c>
       <c r="D20" t="str">
-        <v>standard/component/SearchList.tsx</v>
-      </c>
-      <c r="E20">
-        <v>70</v>
-      </c>
-      <c r="F20" t="str">
-        <v>i18n_im_88d91fa49b2c19a9</v>
+        <v>Info</v>
+      </c>
+      <c r="E20" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F20">
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>链接</v>
+        <v>i18n_im_36e69ffa241b5f91</v>
       </c>
       <c r="B21" t="str">
-        <v>搜索历史</v>
+        <v>链接</v>
       </c>
       <c r="C21" t="str">
-        <v>Search history:</v>
+        <v>[资料]</v>
       </c>
       <c r="D21" t="str">
-        <v>standard/component/SearchList.tsx</v>
-      </c>
-      <c r="E21">
-        <v>103</v>
-      </c>
-      <c r="F21" t="str">
-        <v>i18n_im_f244a2842f425c27</v>
+        <v>Info</v>
+      </c>
+      <c r="E21" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F21">
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>链接</v>
+        <v>i18n_im_edecf0ae6e5144f9</v>
       </c>
       <c r="B22" t="str">
-        <v>暂无搜索历史</v>
+        <v>链接</v>
       </c>
       <c r="C22" t="str">
-        <v>No search history yet</v>
+        <v>发送</v>
       </c>
       <c r="D22" t="str">
-        <v>standard/component/SearchList.tsx</v>
-      </c>
-      <c r="E22">
-        <v>119</v>
-      </c>
-      <c r="F22" t="str">
-        <v>i18n_im_0451c77017f6bcdb</v>
+        <v>Post</v>
+      </c>
+      <c r="E22" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F22">
+        <v>273</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>链接</v>
+        <v>i18n_im_edecf0ae6e5144f9</v>
       </c>
       <c r="B23" t="str">
-        <v>更多</v>
+        <v>链接</v>
       </c>
       <c r="C23" t="str">
-        <v>更多/More info</v>
+        <v>发送</v>
       </c>
       <c r="D23" t="str">
-        <v>standard/component/SearchList.tsx</v>
-      </c>
-      <c r="E23">
-        <v>153</v>
-      </c>
-      <c r="F23" t="str">
-        <v>i18n_im_38844b135cf70dfc</v>
+        <v>Post</v>
+      </c>
+      <c r="E23" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F23">
+        <v>273</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>链接</v>
+        <v>i18n_im_a59f5356a3fad0af</v>
       </c>
       <c r="B24" t="str">
-        <v>返回顶部</v>
+        <v>链接</v>
       </c>
       <c r="C24" t="str">
-        <v>Return to top of page</v>
+        <v>录音时间太短</v>
       </c>
       <c r="D24" t="str">
-        <v>standard/component/SeekBarSectionList.tsx</v>
-      </c>
-      <c r="E24">
-        <v>63</v>
-      </c>
-      <c r="F24" t="str">
-        <v>i18n_im_071b374af1b861ac</v>
+        <v>Length of recording is too short</v>
+      </c>
+      <c r="E24" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F24">
+        <v>342</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>链接</v>
+        <v>i18n_im_a59f5356a3fad0af</v>
       </c>
       <c r="B25" t="str">
-        <v>加载中</v>
+        <v>链接</v>
       </c>
       <c r="C25" t="str">
-        <v>Loading</v>
+        <v>录音时间太短</v>
       </c>
       <c r="D25" t="str">
-        <v>standard/delegate.tsx</v>
-      </c>
-      <c r="E25">
-        <v>144</v>
-      </c>
-      <c r="F25" t="str">
-        <v>i18n_im_d04fcbda737fc0c6</v>
+        <v>Length of recording is too short</v>
+      </c>
+      <c r="E25" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F25">
+        <v>342</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>链接</v>
+        <v>i18n_im_06d9ae036b346af3</v>
       </c>
       <c r="B26" t="str">
-        <v>确定</v>
+        <v>链接</v>
       </c>
       <c r="C26" t="str">
-        <v>OK</v>
+        <v>所有人</v>
       </c>
       <c r="D26" t="str">
-        <v>standard/delegate.tsx</v>
-      </c>
-      <c r="E26">
-        <v>147</v>
-      </c>
-      <c r="F26" t="str">
-        <v>i18n_im_fac2a67ad87807c4</v>
+        <v>All</v>
+      </c>
+      <c r="E26" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F26">
+        <v>409</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>链接</v>
+        <v>i18n_im_06d9ae036b346af3</v>
       </c>
       <c r="B27" t="str">
-        <v>无法处理该消息</v>
+        <v>链接</v>
       </c>
       <c r="C27" t="str">
-        <v>Unable to process the message</v>
+        <v>所有人</v>
       </c>
       <c r="D27" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E27">
-        <v>27</v>
-      </c>
-      <c r="F27" t="str">
-        <v>i18n_im_0fa0bb961120b871</v>
+        <v>All</v>
+      </c>
+      <c r="E27" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F27">
+        <v>409</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>链接</v>
+        <v>i18n_im_3754200aefd1fa17</v>
       </c>
       <c r="B28" t="str">
-        <v>撤回了一条消息</v>
+        <v>链接</v>
       </c>
       <c r="C28" t="str">
-        <v>withdrew a message</v>
+        <v>选择@的人</v>
       </c>
       <c r="D28" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E28">
-        <v>50</v>
-      </c>
-      <c r="F28" t="str">
-        <v>i18n_im_4ddf313f8a105007</v>
+        <v>People who choose @</v>
+      </c>
+      <c r="E28" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F28">
+        <v>437</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>链接</v>
+        <v>i18n_im_3754200aefd1fa17</v>
       </c>
       <c r="B29" t="str">
-        <v>邀请</v>
+        <v>链接</v>
       </c>
       <c r="C29" t="str">
-        <v>Undang</v>
+        <v>选择@的人</v>
       </c>
       <c r="D29" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E29">
-        <v>81</v>
-      </c>
-      <c r="F29" t="str">
-        <v>i18n_im_1955b265d56843b1</v>
+        <v>People who choose @</v>
+      </c>
+      <c r="E29" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F29">
+        <v>437</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>链接</v>
+        <v>i18n_im_0089f124e7fec588</v>
       </c>
       <c r="B30" t="str">
-        <v>加入了群聊</v>
+        <v>链接</v>
       </c>
       <c r="C30" t="str">
-        <v>Joined the group chat</v>
+        <v>您未设置录音权限，请去设置中打开</v>
       </c>
       <c r="D30" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E30">
-        <v>81</v>
-      </c>
-      <c r="F30" t="str">
-        <v>i18n_im_66fab88b15d1b84a</v>
+        <v>You have not set recording permissions, please go to Settings to open</v>
+      </c>
+      <c r="E30" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F30">
+        <v>505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>链接</v>
+        <v>i18n_im_0089f124e7fec588</v>
       </c>
       <c r="B31" t="str">
-        <v>退出了群聊</v>
+        <v>链接</v>
       </c>
       <c r="C31" t="str">
-        <v>Leave group chat</v>
+        <v>您未设置录音权限，请去设置中打开</v>
       </c>
       <c r="D31" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E31">
-        <v>96</v>
-      </c>
-      <c r="F31" t="str">
-        <v>i18n_im_5201d174b040bc31</v>
+        <v>You have not set recording permissions, please go to Settings to open</v>
+      </c>
+      <c r="E31" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F31">
+        <v>505</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>链接</v>
+        <v>i18n_im_0089f124e7fec588</v>
       </c>
       <c r="B32" t="str">
-        <v>被移出群聊</v>
+        <v>链接</v>
       </c>
       <c r="C32" t="str">
-        <v>Moved out of group chat</v>
+        <v>您未设置录音权限，请去设置中打开</v>
       </c>
       <c r="D32" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E32">
-        <v>96</v>
-      </c>
-      <c r="F32" t="str">
-        <v>i18n_im_8ddc53f4eaec8e24</v>
+        <v>You have not set recording permissions, please go to Settings to open</v>
+      </c>
+      <c r="E32" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F32">
+        <v>522</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>链接</v>
+        <v>i18n_im_0089f124e7fec588</v>
       </c>
       <c r="B33" t="str">
-        <v>修改群名称为</v>
+        <v>链接</v>
       </c>
       <c r="C33" t="str">
-        <v>Change group name to</v>
+        <v>您未设置录音权限，请去设置中打开</v>
       </c>
       <c r="D33" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E33">
-        <v>119</v>
-      </c>
-      <c r="F33" t="str">
-        <v>i18n_im_0b8b035b6960dfc7</v>
+        <v>You have not set recording permissions, please go to Settings to open</v>
+      </c>
+      <c r="E33" t="str">
+        <v>standard/component/BottomBar.tsx</v>
+      </c>
+      <c r="F33">
+        <v>522</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>链接</v>
+        <v>i18n_im_f2528b714235845b</v>
       </c>
       <c r="B34" t="str">
-        <v>群主已经更换为</v>
+        <v>链接</v>
       </c>
       <c r="C34" t="str">
-        <v>The group owner has been replaced with</v>
+        <v>请选择消息</v>
       </c>
       <c r="D34" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E34">
+        <v>Please select a message</v>
+      </c>
+      <c r="E34" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F34">
         <v>130</v>
-      </c>
-      <c r="F34" t="str">
-        <v>i18n_im_802a73c243b4876d</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>链接</v>
+        <v>i18n_im_f2528b714235845b</v>
       </c>
       <c r="B35" t="str">
-        <v>你</v>
+        <v>链接</v>
       </c>
       <c r="C35" t="str">
-        <v>You</v>
+        <v>请选择消息</v>
       </c>
       <c r="D35" t="str">
-        <v>standard/model/external.ts</v>
-      </c>
-      <c r="E35">
-        <v>143</v>
-      </c>
-      <c r="F35" t="str">
-        <v>i18n_im_a0c7716669b5ded0</v>
+        <v>Please select a message</v>
+      </c>
+      <c r="E35" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F35">
+        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>链接</v>
+        <v>i18n_im_b9d685bbf18e3860</v>
       </c>
       <c r="B36" t="str">
-        <v>暂不支持发送该消息类型</v>
+        <v>链接</v>
       </c>
       <c r="C36" t="str">
-        <v>Sending this message type is temporarily unsupported</v>
+        <v>你选择的消息中，语音特殊消息不能转发给朋友，是否继续？</v>
       </c>
       <c r="D36" t="str">
-        <v>standard/model/message.ts</v>
-      </c>
-      <c r="E36">
-        <v>40</v>
-      </c>
-      <c r="F36" t="str">
-        <v>i18n_im_ae2493cbdfcdc366</v>
+        <v>In the message you selected, the voice special message cannot be forwarded to a friend. Do you want to continue?</v>
+      </c>
+      <c r="E36" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F36">
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>链接</v>
+        <v>i18n_im_b9d685bbf18e3860</v>
       </c>
       <c r="B37" t="str">
-        <v>:[图片]</v>
+        <v>链接</v>
       </c>
       <c r="C37" t="str">
-        <v>[Picture]</v>
+        <v>你选择的消息中，语音特殊消息不能转发给朋友，是否继续？</v>
       </c>
       <c r="D37" t="str">
-        <v>standard/model/quote.ts</v>
-      </c>
-      <c r="E37">
-        <v>47</v>
-      </c>
-      <c r="F37" t="str">
-        <v>i18n_im_b9c65332a57fb427</v>
+        <v>In the message you selected, the voice special message cannot be forwarded to a friend. Do you want to continue?</v>
+      </c>
+      <c r="E37" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F37">
+        <v>137</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>链接</v>
+        <v>i18n_im_2cd0f3be8738a86c</v>
       </c>
       <c r="B38" t="str">
-        <v>:[视频]</v>
+        <v>链接</v>
       </c>
       <c r="C38" t="str">
-        <v>Insert Video</v>
+        <v>取消</v>
       </c>
       <c r="D38" t="str">
-        <v>standard/model/quote.ts</v>
-      </c>
-      <c r="E38">
-        <v>50</v>
-      </c>
-      <c r="F38" t="str">
-        <v>i18n_im_77430a0d2bed04f2</v>
+        <v>Cancel</v>
+      </c>
+      <c r="E38" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F38">
+        <v>138</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>链接</v>
+        <v>i18n_im_2cd0f3be8738a86c</v>
       </c>
       <c r="B39" t="str">
-        <v>:[位置]</v>
+        <v>链接</v>
       </c>
       <c r="C39" t="str">
-        <v>Location</v>
+        <v>取消</v>
       </c>
       <c r="D39" t="str">
-        <v>standard/model/quote.ts</v>
-      </c>
-      <c r="E39">
-        <v>53</v>
-      </c>
-      <c r="F39" t="str">
-        <v>i18n_im_2d6fd2ad327211a5</v>
+        <v>Cancel</v>
+      </c>
+      <c r="E39" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F39">
+        <v>138</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>链接</v>
+        <v>i18n_im_7c9691192f1b7340</v>
       </c>
       <c r="B40" t="str">
-        <v>:[文件]</v>
+        <v>链接</v>
       </c>
       <c r="C40" t="str">
-        <v xml:space="preserve"> file</v>
+        <v>继续</v>
       </c>
       <c r="D40" t="str">
-        <v>standard/model/quote.ts</v>
-      </c>
-      <c r="E40">
-        <v>56</v>
-      </c>
-      <c r="F40" t="str">
-        <v>i18n_im_f00e44feec93335e</v>
+        <v>CONTINUE</v>
+      </c>
+      <c r="E40" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F40">
+        <v>140</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>链接</v>
+        <v>i18n_im_7c9691192f1b7340</v>
       </c>
       <c r="B41" t="str">
-        <v>:[资料]</v>
+        <v>链接</v>
       </c>
       <c r="C41" t="str">
-        <v>Info</v>
+        <v>继续</v>
       </c>
       <c r="D41" t="str">
-        <v>standard/model/quote.ts</v>
-      </c>
-      <c r="E41">
-        <v>59</v>
-      </c>
-      <c r="F41" t="str">
-        <v>i18n_im_c5f393e5f1ebdae8</v>
+        <v>CONTINUE</v>
+      </c>
+      <c r="E41" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F41">
+        <v>140</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B42" t="str">
-        <v>请选择消息</v>
+        <v>链接</v>
       </c>
       <c r="C42" t="str">
-        <v>Please select a message</v>
+        <v>选择聊天</v>
       </c>
       <c r="D42" t="str">
+        <v>Select chat</v>
+      </c>
+      <c r="E42" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E42">
-        <v>130</v>
-      </c>
-      <c r="F42" t="str">
-        <v>i18n_im_f2528b714235845b</v>
+      <c r="F42">
+        <v>149</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B43" t="str">
-        <v>你选择的消息中，语音特殊消息不能转发给朋友，是否继续？</v>
+        <v>链接</v>
       </c>
       <c r="C43" t="str">
-        <v>In the message you selected, the voice special message cannot be forwarded to a friend. Do you want to continue?</v>
+        <v>选择聊天</v>
       </c>
       <c r="D43" t="str">
+        <v>Select chat</v>
+      </c>
+      <c r="E43" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E43">
-        <v>137</v>
-      </c>
-      <c r="F43" t="str">
-        <v>i18n_im_b9d685bbf18e3860</v>
+      <c r="F43">
+        <v>149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B44" t="str">
-        <v>取消</v>
+        <v>链接</v>
       </c>
       <c r="C44" t="str">
-        <v>Cancel</v>
+        <v>选择聊天</v>
       </c>
       <c r="D44" t="str">
+        <v>Select chat</v>
+      </c>
+      <c r="E44" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E44">
-        <v>138</v>
-      </c>
-      <c r="F44" t="str">
-        <v>i18n_im_2cd0f3be8738a86c</v>
+      <c r="F44">
+        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B45" t="str">
-        <v>继续</v>
+        <v>链接</v>
       </c>
       <c r="C45" t="str">
-        <v>CONTINUE</v>
+        <v>选择聊天</v>
       </c>
       <c r="D45" t="str">
+        <v>Select chat</v>
+      </c>
+      <c r="E45" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E45">
-        <v>140</v>
-      </c>
-      <c r="F45" t="str">
-        <v>i18n_im_7c9691192f1b7340</v>
+      <c r="F45">
+        <v>165</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>链接</v>
+        <v>i18n_im_35b49ee58a4a0e82</v>
       </c>
       <c r="B46" t="str">
-        <v>选择聊天</v>
+        <v>链接</v>
       </c>
       <c r="C46" t="str">
-        <v>Select chat</v>
+        <v>群聊</v>
       </c>
       <c r="D46" t="str">
+        <v>group chat</v>
+      </c>
+      <c r="E46" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E46">
-        <v>149</v>
-      </c>
-      <c r="F46" t="str">
-        <v>i18n_im_d66a56bd18840849</v>
+      <c r="F46">
+        <v>215</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>链接</v>
+        <v>i18n_im_35b49ee58a4a0e82</v>
       </c>
       <c r="B47" t="str">
-        <v>选择聊天</v>
+        <v>链接</v>
       </c>
       <c r="C47" t="str">
-        <v>Select chat</v>
+        <v>群聊</v>
       </c>
       <c r="D47" t="str">
+        <v>group chat</v>
+      </c>
+      <c r="E47" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E47">
-        <v>165</v>
-      </c>
-      <c r="F47" t="str">
-        <v>i18n_im_d66a56bd18840849</v>
+      <c r="F47">
+        <v>215</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>链接</v>
+        <v>i18n_im_bcdb64e46f2bbe33</v>
       </c>
       <c r="B48" t="str">
-        <v>群聊</v>
+        <v>链接</v>
       </c>
       <c r="C48" t="str">
-        <v>group chat</v>
+        <v>您已被移出群聊</v>
       </c>
       <c r="D48" t="str">
+        <v>You have been moved out of the group chat</v>
+      </c>
+      <c r="E48" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E48">
-        <v>215</v>
-      </c>
-      <c r="F48" t="str">
-        <v>i18n_im_35b49ee58a4a0e82</v>
+      <c r="F48">
+        <v>352</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>链接</v>
+        <v>i18n_im_bcdb64e46f2bbe33</v>
       </c>
       <c r="B49" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C49" t="str">
         <v>您已被移出群聊</v>
       </c>
-      <c r="C49" t="str">
+      <c r="D49" t="str">
         <v>You have been moved out of the group chat</v>
       </c>
-      <c r="D49" t="str">
+      <c r="E49" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>352</v>
-      </c>
-      <c r="F49" t="str">
-        <v>i18n_im_bcdb64e46f2bbe33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>链接</v>
+        <v>i18n_im_9d39b140903c8fa8</v>
       </c>
       <c r="B50" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C50" t="str">
         <v>群聊已解散</v>
       </c>
-      <c r="C50" t="str">
+      <c r="D50" t="str">
         <v>Group chat has been disbanded</v>
       </c>
-      <c r="D50" t="str">
+      <c r="E50" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>354</v>
-      </c>
-      <c r="F50" t="str">
-        <v>i18n_im_9d39b140903c8fa8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>链接</v>
+        <v>i18n_im_9d39b140903c8fa8</v>
       </c>
       <c r="B51" t="str">
-        <v>提示</v>
+        <v>链接</v>
       </c>
       <c r="C51" t="str">
-        <v>Tip</v>
+        <v>群聊已解散</v>
       </c>
       <c r="D51" t="str">
+        <v>Group chat has been disbanded</v>
+      </c>
+      <c r="E51" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E51">
-        <v>359</v>
-      </c>
-      <c r="F51" t="str">
-        <v>i18n_im_f56c6c82203b33f6</v>
+      <c r="F51">
+        <v>354</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>链接</v>
+        <v>i18n_im_f56c6c82203b33f6</v>
       </c>
       <c r="B52" t="str">
-        <v>确定</v>
+        <v>链接</v>
       </c>
       <c r="C52" t="str">
-        <v>OK</v>
+        <v>提示</v>
       </c>
       <c r="D52" t="str">
+        <v>Tip</v>
+      </c>
+      <c r="E52" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E52">
-        <v>361</v>
-      </c>
-      <c r="F52" t="str">
-        <v>i18n_im_fac2a67ad87807c4</v>
+      <c r="F52">
+        <v>359</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>链接</v>
+        <v>i18n_im_f56c6c82203b33f6</v>
       </c>
       <c r="B53" t="str">
-        <v>发送消息成功</v>
+        <v>链接</v>
       </c>
       <c r="C53" t="str">
-        <v>Message sent successfully</v>
+        <v>提示</v>
       </c>
       <c r="D53" t="str">
+        <v>Tip</v>
+      </c>
+      <c r="E53" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E53">
-        <v>399</v>
-      </c>
-      <c r="F53" t="str">
-        <v>i18n_im_772f38d18fba663c</v>
+      <c r="F53">
+        <v>359</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>链接</v>
+        <v>i18n_im_fac2a67ad87807c4</v>
       </c>
       <c r="B54" t="str">
-        <v>发送消息失败</v>
+        <v>链接</v>
       </c>
       <c r="C54" t="str">
-        <v>Failed to send message</v>
+        <v>确定</v>
       </c>
       <c r="D54" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E54" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E54">
-        <v>404</v>
-      </c>
-      <c r="F54" t="str">
-        <v>i18n_im_578a923254eb0314</v>
+      <c r="F54">
+        <v>361</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>链接</v>
+        <v>i18n_im_fac2a67ad87807c4</v>
       </c>
       <c r="B55" t="str">
-        <v>复制</v>
+        <v>链接</v>
       </c>
       <c r="C55" t="str">
-        <v>Salin</v>
+        <v>确定</v>
       </c>
       <c r="D55" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E55" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E55">
-        <v>416</v>
-      </c>
-      <c r="F55" t="str">
-        <v>i18n_im_63d90d977348ab1f</v>
+      <c r="F55">
+        <v>361</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>链接</v>
+        <v>i18n_im_772f38d18fba663c</v>
       </c>
       <c r="B56" t="str">
-        <v>引用</v>
+        <v>链接</v>
       </c>
       <c r="C56" t="str">
-        <v>Cite</v>
+        <v>发送消息成功</v>
       </c>
       <c r="D56" t="str">
+        <v>Message sent successfully</v>
+      </c>
+      <c r="E56" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E56">
-        <v>420</v>
-      </c>
-      <c r="F56" t="str">
-        <v>i18n_im_e0ec651f0dae7cf3</v>
+      <c r="F56">
+        <v>399</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>链接</v>
+        <v>i18n_im_772f38d18fba663c</v>
       </c>
       <c r="B57" t="str">
-        <v>转发</v>
+        <v>链接</v>
       </c>
       <c r="C57" t="str">
-        <v>Share</v>
+        <v>发送消息成功</v>
       </c>
       <c r="D57" t="str">
+        <v>Message sent successfully</v>
+      </c>
+      <c r="E57" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E57">
-        <v>424</v>
-      </c>
-      <c r="F57" t="str">
-        <v>i18n_im_02107ba378e21710</v>
+      <c r="F57">
+        <v>399</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>链接</v>
+        <v>i18n_im_578a923254eb0314</v>
       </c>
       <c r="B58" t="str">
-        <v>多选</v>
+        <v>链接</v>
       </c>
       <c r="C58" t="str">
-        <v>Multiple Selection</v>
+        <v>发送消息失败</v>
       </c>
       <c r="D58" t="str">
+        <v>Failed to send message</v>
+      </c>
+      <c r="E58" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E58">
-        <v>425</v>
-      </c>
-      <c r="F58" t="str">
-        <v>i18n_im_461e085d5ca266fb</v>
+      <c r="F58">
+        <v>404</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>链接</v>
+        <v>i18n_im_578a923254eb0314</v>
       </c>
       <c r="B59" t="str">
-        <v>撤回</v>
+        <v>链接</v>
       </c>
       <c r="C59" t="str">
-        <v>Withdraw</v>
+        <v>发送消息失败</v>
       </c>
       <c r="D59" t="str">
+        <v>Failed to send message</v>
+      </c>
+      <c r="E59" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E59">
-        <v>427</v>
-      </c>
-      <c r="F59" t="str">
-        <v>i18n_im_6b58198955259066</v>
+      <c r="F59">
+        <v>404</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>链接</v>
+        <v>i18n_im_63d90d977348ab1f</v>
       </c>
       <c r="B60" t="str">
-        <v>复制成功</v>
+        <v>链接</v>
       </c>
       <c r="C60" t="str">
-        <v>Copied.</v>
+        <v>复制</v>
       </c>
       <c r="D60" t="str">
+        <v>Salin</v>
+      </c>
+      <c r="E60" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E60">
-        <v>443</v>
-      </c>
-      <c r="F60" t="str">
-        <v>i18n_im_324408ed6a3add8e</v>
+      <c r="F60">
+        <v>416</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>链接</v>
+        <v>i18n_im_63d90d977348ab1f</v>
       </c>
       <c r="B61" t="str">
-        <v>选择聊天</v>
+        <v>链接</v>
       </c>
       <c r="C61" t="str">
-        <v>Select chat</v>
+        <v>复制</v>
       </c>
       <c r="D61" t="str">
+        <v>Salin</v>
+      </c>
+      <c r="E61" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E61">
-        <v>449</v>
-      </c>
-      <c r="F61" t="str">
-        <v>i18n_im_d66a56bd18840849</v>
+      <c r="F61">
+        <v>416</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>链接</v>
+        <v>i18n_im_e0ec651f0dae7cf3</v>
       </c>
       <c r="B62" t="str">
-        <v>选择聊天</v>
+        <v>链接</v>
       </c>
       <c r="C62" t="str">
-        <v>Select chat</v>
+        <v>引用</v>
       </c>
       <c r="D62" t="str">
+        <v>Cite</v>
+      </c>
+      <c r="E62" t="str">
         <v>standard/page/ChatDetail.tsx</v>
       </c>
-      <c r="E62">
-        <v>450</v>
-      </c>
-      <c r="F62" t="str">
-        <v>i18n_im_d66a56bd18840849</v>
+      <c r="F62">
+        <v>420</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>链接</v>
+        <v>i18n_im_e0ec651f0dae7cf3</v>
       </c>
       <c r="B63" t="str">
-        <v>聊天列表</v>
+        <v>链接</v>
       </c>
       <c r="C63" t="str">
-        <v>Chat List</v>
+        <v>引用</v>
       </c>
       <c r="D63" t="str">
-        <v>standard/page/ChatList.tsx</v>
-      </c>
-      <c r="E63">
-        <v>13</v>
-      </c>
-      <c r="F63" t="str">
-        <v>i18n_im_9bdc537b54b560c9</v>
+        <v>Cite</v>
+      </c>
+      <c r="E63" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F63">
+        <v>420</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>链接</v>
+        <v>i18n_im_02107ba378e21710</v>
       </c>
       <c r="B64" t="str">
-        <v>标记未读</v>
+        <v>链接</v>
       </c>
       <c r="C64" t="str">
-        <v>Mark entry unread</v>
+        <v>转发</v>
       </c>
       <c r="D64" t="str">
-        <v>standard/page/ChatList.tsx</v>
-      </c>
-      <c r="E64">
-        <v>84</v>
-      </c>
-      <c r="F64" t="str">
-        <v>i18n_im_597f0b54d9ed28be</v>
+        <v>Share</v>
+      </c>
+      <c r="E64" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F64">
+        <v>424</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>链接</v>
+        <v>i18n_im_02107ba378e21710</v>
       </c>
       <c r="B65" t="str">
-        <v>标记已读</v>
+        <v>链接</v>
       </c>
       <c r="C65" t="str">
-        <v>Mark entry read</v>
+        <v>转发</v>
       </c>
       <c r="D65" t="str">
-        <v>standard/page/ChatList.tsx</v>
-      </c>
-      <c r="E65">
-        <v>84</v>
-      </c>
-      <c r="F65" t="str">
-        <v>i18n_im_71ef3f727b039321</v>
+        <v>Share</v>
+      </c>
+      <c r="E65" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F65">
+        <v>424</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>链接</v>
+        <v>i18n_im_461e085d5ca266fb</v>
       </c>
       <c r="B66" t="str">
-        <v>取消置顶</v>
+        <v>链接</v>
       </c>
       <c r="C66" t="str">
-        <v>Remove from top</v>
+        <v>多选</v>
       </c>
       <c r="D66" t="str">
-        <v>standard/page/ChatList.tsx</v>
-      </c>
-      <c r="E66">
-        <v>88</v>
-      </c>
-      <c r="F66" t="str">
-        <v>i18n_im_c92179b74af61689</v>
+        <v>Multiple Selection</v>
+      </c>
+      <c r="E66" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F66">
+        <v>425</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>链接</v>
+        <v>i18n_im_461e085d5ca266fb</v>
       </c>
       <c r="B67" t="str">
-        <v>置顶</v>
+        <v>链接</v>
       </c>
       <c r="C67" t="str">
-        <v>Top</v>
+        <v>多选</v>
       </c>
       <c r="D67" t="str">
-        <v>standard/page/ChatList.tsx</v>
-      </c>
-      <c r="E67">
-        <v>88</v>
-      </c>
-      <c r="F67" t="str">
-        <v>i18n_im_173f88d28ebfb1e6</v>
+        <v>Multiple Selection</v>
+      </c>
+      <c r="E67" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F67">
+        <v>425</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>链接</v>
+        <v>i18n_im_6b58198955259066</v>
       </c>
       <c r="B68" t="str">
-        <v>删除</v>
+        <v>链接</v>
       </c>
       <c r="C68" t="str">
-        <v>Delete</v>
+        <v>撤回</v>
       </c>
       <c r="D68" t="str">
-        <v>standard/page/ChatList.tsx</v>
-      </c>
-      <c r="E68">
-        <v>102</v>
-      </c>
-      <c r="F68" t="str">
-        <v>i18n_im_2f9daa828907b93f</v>
+        <v>Withdraw</v>
+      </c>
+      <c r="E68" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F68">
+        <v>427</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>链接</v>
+        <v>i18n_im_6b58198955259066</v>
       </c>
       <c r="B69" t="str">
-        <v>搜索</v>
+        <v>链接</v>
       </c>
       <c r="C69" t="str">
-        <v>Cari</v>
+        <v>撤回</v>
       </c>
       <c r="D69" t="str">
-        <v>standard/page/ChatList.tsx</v>
-      </c>
-      <c r="E69">
-        <v>133</v>
-      </c>
-      <c r="F69" t="str">
-        <v>i18n_im_44ce7ae909bbb28b</v>
+        <v>Withdraw</v>
+      </c>
+      <c r="E69" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F69">
+        <v>427</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>链接</v>
+        <v>i18n_im_324408ed6a3add8e</v>
       </c>
       <c r="B70" t="str">
-        <v>置顶失败，请稍后重试</v>
+        <v>链接</v>
       </c>
       <c r="C70" t="str">
-        <v>Pinning failed, please try again later</v>
+        <v>复制成功</v>
       </c>
       <c r="D70" t="str">
-        <v>standard/page/ChatList.tsx</v>
-      </c>
-      <c r="E70">
-        <v>154</v>
-      </c>
-      <c r="F70" t="str">
-        <v>i18n_im_7110e44959a56e66</v>
+        <v>Copied.</v>
+      </c>
+      <c r="E70" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F70">
+        <v>443</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>链接</v>
+        <v>i18n_im_324408ed6a3add8e</v>
       </c>
       <c r="B71" t="str">
-        <v>群设置</v>
+        <v>链接</v>
       </c>
       <c r="C71" t="str">
-        <v>group chat settings</v>
+        <v>复制成功</v>
       </c>
       <c r="D71" t="str">
-        <v>standard/page/ChatSetting.tsx</v>
-      </c>
-      <c r="E71">
-        <v>12</v>
-      </c>
-      <c r="F71" t="str">
-        <v>i18n_im_4868fad3fb03957d</v>
+        <v>Copied.</v>
+      </c>
+      <c r="E71" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F71">
+        <v>443</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B72" t="str">
-        <v>聊天设置</v>
+        <v>链接</v>
       </c>
       <c r="C72" t="str">
-        <v>Chat Settings</v>
+        <v>选择聊天</v>
       </c>
       <c r="D72" t="str">
-        <v>standard/page/ChatSetting.tsx</v>
-      </c>
-      <c r="E72">
-        <v>12</v>
-      </c>
-      <c r="F72" t="str">
-        <v>i18n_im_1e06eb86f671e4f5</v>
+        <v>Select chat</v>
+      </c>
+      <c r="E72" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F72">
+        <v>449</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B73" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C73" t="str">
         <v>选择聊天</v>
       </c>
-      <c r="C73" t="str">
+      <c r="D73" t="str">
         <v>Select chat</v>
       </c>
-      <c r="D73" t="str">
-        <v>standard/page/ChooseConversation.tsx</v>
-      </c>
-      <c r="E73">
-        <v>40</v>
-      </c>
-      <c r="F73" t="str">
-        <v>i18n_im_d66a56bd18840849</v>
+      <c r="E73" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F73">
+        <v>449</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B74" t="str">
-        <v>单选</v>
+        <v>链接</v>
       </c>
       <c r="C74" t="str">
-        <v>Single Selection</v>
+        <v>选择聊天</v>
       </c>
       <c r="D74" t="str">
-        <v>standard/page/ChooseConversation.tsx</v>
-      </c>
-      <c r="E74">
-        <v>43</v>
-      </c>
-      <c r="F74" t="str">
-        <v>i18n_im_4214b9af7ae0cdcc</v>
+        <v>Select chat</v>
+      </c>
+      <c r="E74" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F74">
+        <v>450</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B75" t="str">
-        <v>多选</v>
+        <v>链接</v>
       </c>
       <c r="C75" t="str">
-        <v>Multiple Selection</v>
+        <v>选择聊天</v>
       </c>
       <c r="D75" t="str">
-        <v>standard/page/ChooseConversation.tsx</v>
-      </c>
-      <c r="E75">
-        <v>46</v>
-      </c>
-      <c r="F75" t="str">
-        <v>i18n_im_461e085d5ca266fb</v>
+        <v>Select chat</v>
+      </c>
+      <c r="E75" t="str">
+        <v>standard/page/ChatDetail.tsx</v>
+      </c>
+      <c r="F75">
+        <v>450</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>链接</v>
+        <v>i18n_im_9bdc537b54b560c9</v>
       </c>
       <c r="B76" t="str">
-        <v>创建新聊天</v>
+        <v>链接</v>
       </c>
       <c r="C76" t="str">
-        <v>Create New Chat</v>
+        <v>聊天列表</v>
       </c>
       <c r="D76" t="str">
-        <v>standard/page/ChooseConversation.tsx</v>
-      </c>
-      <c r="E76">
-        <v>78</v>
-      </c>
-      <c r="F76" t="str">
-        <v>i18n_im_0b2b098fb0c2c395</v>
+        <v>Chat List</v>
+      </c>
+      <c r="E76" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>链接</v>
+        <v>i18n_im_9bdc537b54b560c9</v>
       </c>
       <c r="B77" t="str">
-        <v>创建新聊天</v>
+        <v>链接</v>
       </c>
       <c r="C77" t="str">
-        <v>Create New Chat</v>
+        <v>聊天列表</v>
       </c>
       <c r="D77" t="str">
-        <v>standard/page/ChooseConversation.tsx</v>
-      </c>
-      <c r="E77">
-        <v>133</v>
-      </c>
-      <c r="F77" t="str">
-        <v>i18n_im_0b2b098fb0c2c395</v>
+        <v>Chat List</v>
+      </c>
+      <c r="E77" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>链接</v>
+        <v>i18n_im_597f0b54d9ed28be</v>
       </c>
       <c r="B78" t="str">
-        <v>加载组织架构失败</v>
+        <v>链接</v>
       </c>
       <c r="C78" t="str">
-        <v>Failed to load organization schema</v>
+        <v>标记未读</v>
       </c>
       <c r="D78" t="str">
-        <v>standard/page/ChooseUser.tsx</v>
-      </c>
-      <c r="E78">
-        <v>49</v>
-      </c>
-      <c r="F78" t="str">
-        <v>i18n_im_d03a6083afafdc72</v>
+        <v>Mark entry unread</v>
+      </c>
+      <c r="E78" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F78">
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>链接</v>
+        <v>i18n_im_71ef3f727b039321</v>
       </c>
       <c r="B79" t="str">
-        <v>加载中</v>
+        <v>链接</v>
       </c>
       <c r="C79" t="str">
-        <v>Loading</v>
+        <v>标记已读</v>
       </c>
       <c r="D79" t="str">
-        <v>standard/page/ChooseUser.tsx</v>
-      </c>
-      <c r="E79">
-        <v>55</v>
-      </c>
-      <c r="F79" t="str">
-        <v>i18n_im_d04fcbda737fc0c6</v>
+        <v>Mark entry read</v>
+      </c>
+      <c r="E79" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F79">
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>链接</v>
+        <v>i18n_im_597f0b54d9ed28be</v>
       </c>
       <c r="B80" t="str">
-        <v>所有人</v>
+        <v>链接</v>
       </c>
       <c r="C80" t="str">
-        <v>All</v>
+        <v>标记未读</v>
       </c>
       <c r="D80" t="str">
-        <v>standard/page/ChooseUser.tsx</v>
-      </c>
-      <c r="E80">
-        <v>102</v>
-      </c>
-      <c r="F80" t="str">
-        <v>i18n_im_06d9ae036b346af3</v>
+        <v>Mark entry unread</v>
+      </c>
+      <c r="E80" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F80">
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>链接</v>
+        <v>i18n_im_71ef3f727b039321</v>
       </c>
       <c r="B81" t="str">
-        <v>按部门选同事</v>
+        <v>链接</v>
       </c>
       <c r="C81" t="str">
-        <v>Select colleagues by department</v>
+        <v>标记已读</v>
       </c>
       <c r="D81" t="str">
-        <v>standard/page/ChooseUser.tsx</v>
-      </c>
-      <c r="E81">
-        <v>115</v>
-      </c>
-      <c r="F81" t="str">
-        <v>i18n_im_d001e16fe50dff46</v>
+        <v>Mark entry read</v>
+      </c>
+      <c r="E81" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F81">
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>链接</v>
+        <v>i18n_im_c92179b74af61689</v>
       </c>
       <c r="B82" t="str">
-        <v>所有人</v>
+        <v>链接</v>
       </c>
       <c r="C82" t="str">
-        <v>All</v>
+        <v>取消置顶</v>
       </c>
       <c r="D82" t="str">
-        <v>standard/page/ChooseUser.tsx</v>
-      </c>
-      <c r="E82">
-        <v>184</v>
-      </c>
-      <c r="F82" t="str">
-        <v>i18n_im_06d9ae036b346af3</v>
+        <v>Remove from top</v>
+      </c>
+      <c r="E82" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F82">
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>链接</v>
+        <v>i18n_im_173f88d28ebfb1e6</v>
       </c>
       <c r="B83" t="str">
-        <v>加载中</v>
+        <v>链接</v>
       </c>
       <c r="C83" t="str">
-        <v>Loading</v>
+        <v>置顶</v>
       </c>
       <c r="D83" t="str">
-        <v>standard/page/ChooseUser.tsx</v>
-      </c>
-      <c r="E83">
-        <v>200</v>
-      </c>
-      <c r="F83" t="str">
-        <v>i18n_im_d04fcbda737fc0c6</v>
+        <v>Top</v>
+      </c>
+      <c r="E83" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F83">
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>链接</v>
+        <v>i18n_im_c92179b74af61689</v>
       </c>
       <c r="B84" t="str">
-        <v>加载组织架构失败</v>
+        <v>链接</v>
       </c>
       <c r="C84" t="str">
-        <v>Failed to load organization schema</v>
+        <v>取消置顶</v>
       </c>
       <c r="D84" t="str">
-        <v>standard/page/ChooseUserFromOrg.tsx</v>
-      </c>
-      <c r="E84">
-        <v>65</v>
-      </c>
-      <c r="F84" t="str">
-        <v>i18n_im_d03a6083afafdc72</v>
+        <v>Remove from top</v>
+      </c>
+      <c r="E84" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F84">
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>链接</v>
+        <v>i18n_im_173f88d28ebfb1e6</v>
       </c>
       <c r="B85" t="str">
-        <v>加载中</v>
+        <v>链接</v>
       </c>
       <c r="C85" t="str">
-        <v>Loading</v>
+        <v>置顶</v>
       </c>
       <c r="D85" t="str">
-        <v>standard/page/ChooseUserFromOrg.tsx</v>
-      </c>
-      <c r="E85">
-        <v>70</v>
-      </c>
-      <c r="F85" t="str">
-        <v>i18n_im_d04fcbda737fc0c6</v>
+        <v>Top</v>
+      </c>
+      <c r="E85" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F85">
+        <v>88</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>链接</v>
+        <v>i18n_im_2f9daa828907b93f</v>
       </c>
       <c r="B86" t="str">
-        <v>兼职</v>
+        <v>链接</v>
       </c>
       <c r="C86" t="str">
-        <v>Part-Time</v>
+        <v>删除</v>
       </c>
       <c r="D86" t="str">
-        <v>standard/page/ChooseUserFromOrg.tsx</v>
-      </c>
-      <c r="E86">
-        <v>220</v>
-      </c>
-      <c r="F86" t="str">
-        <v>i18n_im_4ee81fcb9d6634a9</v>
+        <v>Delete</v>
+      </c>
+      <c r="E86" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F86">
+        <v>102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>链接</v>
+        <v>i18n_im_2f9daa828907b93f</v>
       </c>
       <c r="B87" t="str">
-        <v>通讯录</v>
+        <v>链接</v>
       </c>
       <c r="C87" t="str">
-        <v>Address Book</v>
+        <v>删除</v>
       </c>
       <c r="D87" t="str">
-        <v>standard/page/ContactList.tsx</v>
-      </c>
-      <c r="E87">
-        <v>68</v>
-      </c>
-      <c r="F87" t="str">
-        <v>i18n_im_06657c279571d394</v>
+        <v>Delete</v>
+      </c>
+      <c r="E87" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F87">
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>链接</v>
+        <v>i18n_im_44ce7ae909bbb28b</v>
       </c>
       <c r="B88" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C88" t="str">
         <v>搜索</v>
       </c>
-      <c r="C88" t="str">
+      <c r="D88" t="str">
         <v>Cari</v>
       </c>
-      <c r="D88" t="str">
-        <v>standard/page/ContactList.tsx</v>
-      </c>
-      <c r="E88">
-        <v>71</v>
-      </c>
-      <c r="F88" t="str">
-        <v>i18n_im_44ce7ae909bbb28b</v>
+      <c r="E88" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F88">
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>链接</v>
+        <v>i18n_im_44ce7ae909bbb28b</v>
       </c>
       <c r="B89" t="str">
-        <v>星标好友</v>
+        <v>链接</v>
       </c>
       <c r="C89" t="str">
-        <v>Starred Friends</v>
+        <v>搜索</v>
       </c>
       <c r="D89" t="str">
-        <v>standard/page/ContactList.tsx</v>
-      </c>
-      <c r="E89">
-        <v>188</v>
-      </c>
-      <c r="F89" t="str">
-        <v>i18n_im_99655873f83444df</v>
+        <v>Cari</v>
+      </c>
+      <c r="E89" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F89">
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>链接</v>
+        <v>i18n_im_7110e44959a56e66</v>
       </c>
       <c r="B90" t="str">
-        <v>星标好友</v>
+        <v>链接</v>
       </c>
       <c r="C90" t="str">
-        <v>Starred Friends</v>
+        <v>置顶失败，请稍后重试</v>
       </c>
       <c r="D90" t="str">
-        <v>standard/page/ContactList.tsx</v>
-      </c>
-      <c r="E90">
-        <v>217</v>
-      </c>
-      <c r="F90" t="str">
-        <v>i18n_im_99655873f83444df</v>
+        <v>Pinning failed, please try again later</v>
+      </c>
+      <c r="E90" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F90">
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>链接</v>
+        <v>i18n_im_7110e44959a56e66</v>
       </c>
       <c r="B91" t="str">
-        <v>当前设备无法拨打电话</v>
+        <v>链接</v>
       </c>
       <c r="C91" t="str">
-        <v>The current device is unable to make a call</v>
+        <v>置顶失败，请稍后重试</v>
       </c>
       <c r="D91" t="str">
-        <v>standard/page/ContactList.tsx</v>
-      </c>
-      <c r="E91">
-        <v>233</v>
-      </c>
-      <c r="F91" t="str">
-        <v>i18n_im_1f9926fa5582f5a1</v>
+        <v>Pinning failed, please try again later</v>
+      </c>
+      <c r="E91" t="str">
+        <v>standard/page/ChatList.tsx</v>
+      </c>
+      <c r="F91">
+        <v>154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>链接</v>
+        <v>i18n_im_4868fad3fb03957d</v>
       </c>
       <c r="B92" t="str">
-        <v>确定</v>
+        <v>链接</v>
       </c>
       <c r="C92" t="str">
-        <v>OK</v>
+        <v>群设置</v>
       </c>
       <c r="D92" t="str">
-        <v>standard/page/ContactList.tsx</v>
-      </c>
-      <c r="E92">
-        <v>234</v>
-      </c>
-      <c r="F92" t="str">
-        <v>i18n_im_fac2a67ad87807c4</v>
+        <v>group chat settings</v>
+      </c>
+      <c r="E92" t="str">
+        <v>standard/page/ChatSetting.tsx</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>链接</v>
+        <v>i18n_im_1e06eb86f671e4f5</v>
       </c>
       <c r="B93" t="str">
-        <v>保存</v>
+        <v>链接</v>
       </c>
       <c r="C93" t="str">
-        <v>Save</v>
+        <v>聊天设置</v>
       </c>
       <c r="D93" t="str">
-        <v>standard/page/GroupAnnouncementEdit.tsx</v>
-      </c>
-      <c r="E93">
-        <v>58</v>
-      </c>
-      <c r="F93" t="str">
-        <v>i18n_im_a3030bf8f16dc63c</v>
+        <v>Chat Settings</v>
+      </c>
+      <c r="E93" t="str">
+        <v>standard/page/ChatSetting.tsx</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>链接</v>
+        <v>i18n_im_4868fad3fb03957d</v>
       </c>
       <c r="B94" t="str">
-        <v>群公告</v>
+        <v>链接</v>
       </c>
       <c r="C94" t="str">
-        <v>Grupo Notice</v>
+        <v>群设置</v>
       </c>
       <c r="D94" t="str">
-        <v>standard/page/GroupAnnouncementEdit.tsx</v>
-      </c>
-      <c r="E94">
-        <v>69</v>
-      </c>
-      <c r="F94" t="str">
-        <v>i18n_im_99728d0e0224c355</v>
+        <v>group chat settings</v>
+      </c>
+      <c r="E94" t="str">
+        <v>standard/page/ChatSetting.tsx</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>链接</v>
+        <v>i18n_im_1e06eb86f671e4f5</v>
       </c>
       <c r="B95" t="str">
-        <v>请输入群公告内容</v>
+        <v>链接</v>
       </c>
       <c r="C95" t="str">
-        <v>Please enter group announcement content</v>
+        <v>聊天设置</v>
       </c>
       <c r="D95" t="str">
-        <v>standard/page/GroupAnnouncementEdit.tsx</v>
-      </c>
-      <c r="E95">
-        <v>76</v>
-      </c>
-      <c r="F95" t="str">
-        <v>i18n_im_0a59be271a44ca8b</v>
+        <v>Chat Settings</v>
+      </c>
+      <c r="E95" t="str">
+        <v>standard/page/ChatSetting.tsx</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B96" t="str">
-        <v>保存成功</v>
+        <v>链接</v>
       </c>
       <c r="C96" t="str">
-        <v>Save successful.</v>
+        <v>选择聊天</v>
       </c>
       <c r="D96" t="str">
-        <v>standard/page/GroupAnnouncementEdit.tsx</v>
-      </c>
-      <c r="E96">
-        <v>105</v>
-      </c>
-      <c r="F96" t="str">
-        <v>i18n_im_e05ddf992cc50896</v>
+        <v>Select chat</v>
+      </c>
+      <c r="E96" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F96">
+        <v>40</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>链接</v>
+        <v>i18n_im_d66a56bd18840849</v>
       </c>
       <c r="B97" t="str">
-        <v>保存失败</v>
+        <v>链接</v>
       </c>
       <c r="C97" t="str">
-        <v>save failed</v>
+        <v>选择聊天</v>
       </c>
       <c r="D97" t="str">
-        <v>standard/page/GroupAnnouncementEdit.tsx</v>
-      </c>
-      <c r="E97">
-        <v>110</v>
-      </c>
-      <c r="F97" t="str">
-        <v>i18n_im_6309a3bb5ba4c714</v>
+        <v>Select chat</v>
+      </c>
+      <c r="E97" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F97">
+        <v>40</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>链接</v>
+        <v>i18n_im_4214b9af7ae0cdcc</v>
       </c>
       <c r="B98" t="str">
-        <v>@所有人</v>
+        <v>链接</v>
       </c>
       <c r="C98" t="str">
-        <v>All</v>
+        <v>单选</v>
       </c>
       <c r="D98" t="str">
-        <v>standard/page/GroupAnnouncementEdit.tsx</v>
-      </c>
-      <c r="E98">
-        <v>117</v>
-      </c>
-      <c r="F98" t="str">
-        <v>i18n_im_b6c9b231fbf6a5e4</v>
+        <v>Single Selection</v>
+      </c>
+      <c r="E98" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F98">
+        <v>43</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>链接</v>
+        <v>i18n_im_4214b9af7ae0cdcc</v>
       </c>
       <c r="B99" t="str">
-        <v>加载群列表失败</v>
+        <v>链接</v>
       </c>
       <c r="C99" t="str">
-        <v>Failed to load group list</v>
+        <v>单选</v>
       </c>
       <c r="D99" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E99">
-        <v>32</v>
-      </c>
-      <c r="F99" t="str">
-        <v>i18n_im_8e086745d38948eb</v>
+        <v>Single Selection</v>
+      </c>
+      <c r="E99" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F99">
+        <v>43</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>链接</v>
+        <v>i18n_im_461e085d5ca266fb</v>
       </c>
       <c r="B100" t="str">
-        <v>群聊</v>
+        <v>链接</v>
       </c>
       <c r="C100" t="str">
-        <v>group chat</v>
+        <v>多选</v>
       </c>
       <c r="D100" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E100">
-        <v>45</v>
-      </c>
-      <c r="F100" t="str">
-        <v>i18n_im_35b49ee58a4a0e82</v>
+        <v>Multiple Selection</v>
+      </c>
+      <c r="E100" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F100">
+        <v>46</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>链接</v>
+        <v>i18n_im_461e085d5ca266fb</v>
       </c>
       <c r="B101" t="str">
-        <v>搜索</v>
+        <v>链接</v>
       </c>
       <c r="C101" t="str">
-        <v>Cari</v>
+        <v>多选</v>
       </c>
       <c r="D101" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E101">
-        <v>48</v>
-      </c>
-      <c r="F101" t="str">
-        <v>i18n_im_44ce7ae909bbb28b</v>
+        <v>Multiple Selection</v>
+      </c>
+      <c r="E101" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F101">
+        <v>46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>链接</v>
+        <v>i18n_im_0b2b098fb0c2c395</v>
       </c>
       <c r="B102" t="str">
-        <v>人</v>
+        <v>链接</v>
       </c>
       <c r="C102" t="str">
-        <v>Pemain</v>
+        <v>创建新聊天</v>
       </c>
       <c r="D102" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E102">
-        <v>71</v>
-      </c>
-      <c r="F102" t="str">
-        <v>i18n_im_50f5d65d57290f75</v>
+        <v>Create New Chat</v>
+      </c>
+      <c r="E102" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F102">
+        <v>78</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>链接</v>
+        <v>i18n_im_0b2b098fb0c2c395</v>
       </c>
       <c r="B103" t="str">
-        <v>个群聊</v>
+        <v>链接</v>
       </c>
       <c r="C103" t="str">
-        <v>Group chats</v>
+        <v>创建新聊天</v>
       </c>
       <c r="D103" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E103">
-        <v>91</v>
-      </c>
-      <c r="F103" t="str">
-        <v>i18n_im_e660a4d6b0bfc245</v>
+        <v>Create New Chat</v>
+      </c>
+      <c r="E103" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F103">
+        <v>78</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>链接</v>
+        <v>i18n_im_0b2b098fb0c2c395</v>
       </c>
       <c r="B104" t="str">
-        <v>搜索群名称、群成员</v>
+        <v>链接</v>
       </c>
       <c r="C104" t="str">
-        <v>Search group name, group members</v>
+        <v>创建新聊天</v>
       </c>
       <c r="D104" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E104">
-        <v>108</v>
-      </c>
-      <c r="F104" t="str">
-        <v>i18n_im_99fb2263ba473236</v>
+        <v>Create New Chat</v>
+      </c>
+      <c r="E104" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F104">
+        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>链接</v>
+        <v>i18n_im_0b2b098fb0c2c395</v>
       </c>
       <c r="B105" t="str">
-        <v>共</v>
+        <v>链接</v>
       </c>
       <c r="C105" t="str">
-        <v>Total</v>
+        <v>创建新聊天</v>
       </c>
       <c r="D105" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E105">
-        <v>156</v>
-      </c>
-      <c r="F105" t="str">
-        <v>i18n_im_76e547a8fa546381</v>
+        <v>Create New Chat</v>
+      </c>
+      <c r="E105" t="str">
+        <v>standard/page/ChooseConversation.tsx</v>
+      </c>
+      <c r="F105">
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>链接</v>
+        <v>i18n_im_d03a6083afafdc72</v>
       </c>
       <c r="B106" t="str">
-        <v>人</v>
+        <v>链接</v>
       </c>
       <c r="C106" t="str">
-        <v>Pemain</v>
+        <v>加载组织架构失败</v>
       </c>
       <c r="D106" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E106">
-        <v>156</v>
-      </c>
-      <c r="F106" t="str">
-        <v>i18n_im_50f5d65d57290f75</v>
+        <v>Failed to load organization schema</v>
+      </c>
+      <c r="E106" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F106">
+        <v>49</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>链接</v>
+        <v>i18n_im_d03a6083afafdc72</v>
       </c>
       <c r="B107" t="str">
-        <v>群成员：</v>
+        <v>链接</v>
       </c>
       <c r="C107" t="str">
-        <v>Group members</v>
+        <v>加载组织架构失败</v>
       </c>
       <c r="D107" t="str">
-        <v>standard/page/GroupList.tsx</v>
-      </c>
-      <c r="E107">
-        <v>197</v>
-      </c>
-      <c r="F107" t="str">
-        <v>i18n_im_85ce71acbbc8057a</v>
+        <v>Failed to load organization schema</v>
+      </c>
+      <c r="E107" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F107">
+        <v>49</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>链接</v>
+        <v>i18n_im_d04fcbda737fc0c6</v>
       </c>
       <c r="B108" t="str">
-        <v>添加</v>
+        <v>链接</v>
       </c>
       <c r="C108" t="str">
-        <v>Tambah</v>
+        <v>加载中</v>
       </c>
       <c r="D108" t="str">
-        <v>standard/page/GroupMembers.tsx</v>
-      </c>
-      <c r="E108">
-        <v>39</v>
-      </c>
-      <c r="F108" t="str">
-        <v>i18n_im_7a8a11ead50742a2</v>
+        <v>Loading</v>
+      </c>
+      <c r="E108" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F108">
+        <v>55</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>链接</v>
+        <v>i18n_im_d04fcbda737fc0c6</v>
       </c>
       <c r="B109" t="str">
-        <v>群成员</v>
+        <v>链接</v>
       </c>
       <c r="C109" t="str">
-        <v>Group members</v>
+        <v>加载中</v>
       </c>
       <c r="D109" t="str">
-        <v>standard/page/GroupMembers.tsx</v>
-      </c>
-      <c r="E109">
-        <v>45</v>
-      </c>
-      <c r="F109" t="str">
-        <v>i18n_im_9d8692671d208b74</v>
+        <v>Loading</v>
+      </c>
+      <c r="E109" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F109">
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>链接</v>
+        <v>i18n_im_06d9ae036b346af3</v>
       </c>
       <c r="B110" t="str">
-        <v>删除</v>
+        <v>链接</v>
       </c>
       <c r="C110" t="str">
-        <v>Delete</v>
+        <v>所有人</v>
       </c>
       <c r="D110" t="str">
-        <v>standard/page/GroupMembers.tsx</v>
-      </c>
-      <c r="E110">
-        <v>103</v>
-      </c>
-      <c r="F110" t="str">
-        <v>i18n_im_2f9daa828907b93f</v>
+        <v>All</v>
+      </c>
+      <c r="E110" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F110">
+        <v>102</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>链接</v>
+        <v>i18n_im_06d9ae036b346af3</v>
       </c>
       <c r="B111" t="str">
-        <v>取消</v>
+        <v>链接</v>
       </c>
       <c r="C111" t="str">
-        <v>Cancel</v>
+        <v>所有人</v>
       </c>
       <c r="D111" t="str">
-        <v>standard/page/GroupMembers.tsx</v>
-      </c>
-      <c r="E111">
-        <v>103</v>
-      </c>
-      <c r="F111" t="str">
-        <v>i18n_im_2cd0f3be8738a86c</v>
+        <v>All</v>
+      </c>
+      <c r="E111" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F111">
+        <v>102</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>链接</v>
+        <v>i18n_im_d001e16fe50dff46</v>
       </c>
       <c r="B112" t="str">
-        <v>群主</v>
+        <v>链接</v>
       </c>
       <c r="C112" t="str">
-        <v>Group Admins</v>
+        <v>按部门选同事</v>
       </c>
       <c r="D112" t="str">
-        <v>standard/page/GroupMembers.tsx</v>
-      </c>
-      <c r="E112">
-        <v>131</v>
-      </c>
-      <c r="F112" t="str">
-        <v>i18n_im_81d4acd17ee028f1</v>
+        <v>Select colleagues by department</v>
+      </c>
+      <c r="E112" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F112">
+        <v>115</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>链接</v>
+        <v>i18n_im_d001e16fe50dff46</v>
       </c>
       <c r="B113" t="str">
-        <v>添加群成员</v>
+        <v>链接</v>
       </c>
       <c r="C113" t="str">
-        <v>Add group members</v>
+        <v>按部门选同事</v>
       </c>
       <c r="D113" t="str">
-        <v>standard/page/GroupMembers.tsx</v>
-      </c>
-      <c r="E113">
-        <v>151</v>
-      </c>
-      <c r="F113" t="str">
-        <v>i18n_im_0eabb74eaf726370</v>
+        <v>Select colleagues by department</v>
+      </c>
+      <c r="E113" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F113">
+        <v>115</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>链接</v>
+        <v>i18n_im_06d9ae036b346af3</v>
       </c>
       <c r="B114" t="str">
-        <v>修改群聊名称</v>
+        <v>链接</v>
       </c>
       <c r="C114" t="str">
-        <v>Change group chat name</v>
+        <v>所有人</v>
       </c>
       <c r="D114" t="str">
-        <v>standard/page/GroupNameEdit.tsx</v>
-      </c>
-      <c r="E114">
-        <v>68</v>
-      </c>
-      <c r="F114" t="str">
-        <v>i18n_im_661a0f6971841411</v>
+        <v>All</v>
+      </c>
+      <c r="E114" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F114">
+        <v>184</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>链接</v>
+        <v>i18n_im_06d9ae036b346af3</v>
       </c>
       <c r="B115" t="str">
-        <v>请输入群名</v>
+        <v>链接</v>
       </c>
       <c r="C115" t="str">
-        <v>Please enter a group name</v>
+        <v>所有人</v>
       </c>
       <c r="D115" t="str">
-        <v>standard/page/GroupNameEdit.tsx</v>
-      </c>
-      <c r="E115">
-        <v>78</v>
-      </c>
-      <c r="F115" t="str">
-        <v>i18n_im_81d967ce93415779</v>
+        <v>All</v>
+      </c>
+      <c r="E115" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F115">
+        <v>184</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>链接</v>
+        <v>i18n_im_d04fcbda737fc0c6</v>
       </c>
       <c r="B116" t="str">
-        <v>完成</v>
+        <v>链接</v>
       </c>
       <c r="C116" t="str">
-        <v>Completed</v>
+        <v>加载中</v>
       </c>
       <c r="D116" t="str">
-        <v>standard/page/GroupNameEdit.tsx</v>
-      </c>
-      <c r="E116">
-        <v>95</v>
-      </c>
-      <c r="F116" t="str">
-        <v>i18n_im_c0b3fbff51ccc40b</v>
+        <v>Loading</v>
+      </c>
+      <c r="E116" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F116">
+        <v>200</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>链接</v>
+        <v>i18n_im_d04fcbda737fc0c6</v>
       </c>
       <c r="B117" t="str">
-        <v>群聊名称不能为空</v>
+        <v>链接</v>
       </c>
       <c r="C117" t="str">
-        <v>Group chat name cannot be empty</v>
+        <v>加载中</v>
       </c>
       <c r="D117" t="str">
-        <v>standard/page/GroupNameEdit.tsx</v>
-      </c>
-      <c r="E117">
-        <v>111</v>
-      </c>
-      <c r="F117" t="str">
-        <v>i18n_im_80554a49f3f890eb</v>
+        <v>Loading</v>
+      </c>
+      <c r="E117" t="str">
+        <v>standard/page/ChooseUser.tsx</v>
+      </c>
+      <c r="F117">
+        <v>200</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>链接</v>
+        <v>i18n_im_d03a6083afafdc72</v>
       </c>
       <c r="B118" t="str">
-        <v>保存成功</v>
+        <v>链接</v>
       </c>
       <c r="C118" t="str">
-        <v>Save successful.</v>
+        <v>加载组织架构失败</v>
       </c>
       <c r="D118" t="str">
-        <v>standard/page/GroupNameEdit.tsx</v>
-      </c>
-      <c r="E118">
-        <v>119</v>
-      </c>
-      <c r="F118" t="str">
-        <v>i18n_im_e05ddf992cc50896</v>
+        <v>Failed to load organization schema</v>
+      </c>
+      <c r="E118" t="str">
+        <v>standard/page/ChooseUserFromOrg.tsx</v>
+      </c>
+      <c r="F118">
+        <v>65</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>链接</v>
+        <v>i18n_im_d03a6083afafdc72</v>
       </c>
       <c r="B119" t="str">
-        <v>保存失败</v>
+        <v>链接</v>
       </c>
       <c r="C119" t="str">
-        <v>save failed</v>
+        <v>加载组织架构失败</v>
       </c>
       <c r="D119" t="str">
-        <v>standard/page/GroupNameEdit.tsx</v>
-      </c>
-      <c r="E119">
-        <v>124</v>
-      </c>
-      <c r="F119" t="str">
-        <v>i18n_im_6309a3bb5ba4c714</v>
+        <v>Failed to load organization schema</v>
+      </c>
+      <c r="E119" t="str">
+        <v>standard/page/ChooseUserFromOrg.tsx</v>
+      </c>
+      <c r="F119">
+        <v>65</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>链接</v>
+        <v>i18n_im_d04fcbda737fc0c6</v>
       </c>
       <c r="B120" t="str">
-        <v>员工</v>
+        <v>链接</v>
       </c>
       <c r="C120" t="str">
-        <v>Employees</v>
+        <v>加载中</v>
       </c>
       <c r="D120" t="str">
-        <v>standard/page/Search.tsx</v>
-      </c>
-      <c r="E120">
-        <v>52</v>
-      </c>
-      <c r="F120" t="str">
-        <v>i18n_im_a1f5d5fcbdc4d510</v>
+        <v>Loading</v>
+      </c>
+      <c r="E120" t="str">
+        <v>standard/page/ChooseUserFromOrg.tsx</v>
+      </c>
+      <c r="F120">
+        <v>70</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>链接</v>
+        <v>i18n_im_d04fcbda737fc0c6</v>
       </c>
       <c r="B121" t="str">
-        <v>群聊</v>
+        <v>链接</v>
       </c>
       <c r="C121" t="str">
-        <v>group chat</v>
+        <v>加载中</v>
       </c>
       <c r="D121" t="str">
-        <v>standard/page/Search.tsx</v>
-      </c>
-      <c r="E121">
-        <v>55</v>
-      </c>
-      <c r="F121" t="str">
-        <v>i18n_im_35b49ee58a4a0e82</v>
+        <v>Loading</v>
+      </c>
+      <c r="E121" t="str">
+        <v>standard/page/ChooseUserFromOrg.tsx</v>
+      </c>
+      <c r="F121">
+        <v>70</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>链接</v>
+        <v>i18n_im_4ee81fcb9d6634a9</v>
       </c>
       <c r="B122" t="str">
-        <v>搜索</v>
+        <v>链接</v>
       </c>
       <c r="C122" t="str">
-        <v>Cari</v>
+        <v>兼职</v>
       </c>
       <c r="D122" t="str">
-        <v>standard/page/Search.tsx</v>
-      </c>
-      <c r="E122">
-        <v>57</v>
-      </c>
-      <c r="F122" t="str">
-        <v>i18n_im_44ce7ae909bbb28b</v>
+        <v>Part-Time</v>
+      </c>
+      <c r="E122" t="str">
+        <v>standard/page/ChooseUserFromOrg.tsx</v>
+      </c>
+      <c r="F122">
+        <v>220</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>链接</v>
+        <v>i18n_im_4ee81fcb9d6634a9</v>
       </c>
       <c r="B123" t="str">
-        <v>通讯录</v>
+        <v>链接</v>
       </c>
       <c r="C123" t="str">
-        <v>Address Book</v>
+        <v>兼职</v>
       </c>
       <c r="D123" t="str">
-        <v>standard/page/Search.tsx</v>
-      </c>
-      <c r="E123">
-        <v>83</v>
-      </c>
-      <c r="F123" t="str">
-        <v>i18n_im_06657c279571d394</v>
+        <v>Part-Time</v>
+      </c>
+      <c r="E123" t="str">
+        <v>standard/page/ChooseUserFromOrg.tsx</v>
+      </c>
+      <c r="F123">
+        <v>220</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>链接</v>
+        <v>i18n_im_06657c279571d394</v>
       </c>
       <c r="B124" t="str">
-        <v>群聊</v>
+        <v>链接</v>
       </c>
       <c r="C124" t="str">
-        <v>group chat</v>
+        <v>通讯录</v>
       </c>
       <c r="D124" t="str">
-        <v>standard/page/Search.tsx</v>
-      </c>
-      <c r="E124">
-        <v>112</v>
-      </c>
-      <c r="F124" t="str">
-        <v>i18n_im_35b49ee58a4a0e82</v>
+        <v>Address Book</v>
+      </c>
+      <c r="E124" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F124">
+        <v>68</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>链接</v>
+        <v>i18n_im_06657c279571d394</v>
       </c>
       <c r="B125" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C125" t="str">
         <v>通讯录</v>
       </c>
-      <c r="C125" t="str">
+      <c r="D125" t="str">
         <v>Address Book</v>
       </c>
-      <c r="D125" t="str">
-        <v>standard/page/Search.tsx</v>
-      </c>
-      <c r="E125">
-        <v>152</v>
-      </c>
-      <c r="F125" t="str">
-        <v>i18n_im_06657c279571d394</v>
+      <c r="E125" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F125">
+        <v>68</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>链接</v>
+        <v>i18n_im_44ce7ae909bbb28b</v>
       </c>
       <c r="B126" t="str">
-        <v>共</v>
+        <v>链接</v>
       </c>
       <c r="C126" t="str">
-        <v>Total</v>
+        <v>搜索</v>
       </c>
       <c r="D126" t="str">
-        <v>standard/page/Search.tsx</v>
-      </c>
-      <c r="E126">
-        <v>161</v>
-      </c>
-      <c r="F126" t="str">
-        <v>i18n_im_76e547a8fa546381</v>
+        <v>Cari</v>
+      </c>
+      <c r="E126" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F126">
+        <v>71</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>链接</v>
+        <v>i18n_im_44ce7ae909bbb28b</v>
       </c>
       <c r="B127" t="str">
-        <v>人</v>
+        <v>链接</v>
       </c>
       <c r="C127" t="str">
-        <v>Pemain</v>
+        <v>搜索</v>
       </c>
       <c r="D127" t="str">
-        <v>standard/page/Search.tsx</v>
-      </c>
-      <c r="E127">
-        <v>161</v>
-      </c>
-      <c r="F127" t="str">
-        <v>i18n_im_50f5d65d57290f75</v>
+        <v>Cari</v>
+      </c>
+      <c r="E127" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F127">
+        <v>71</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>链接</v>
+        <v>i18n_im_99655873f83444df</v>
       </c>
       <c r="B128" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C128" t="str">
+        <v>星标好友</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Starred Friends</v>
+      </c>
+      <c r="E128" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F128">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>i18n_im_99655873f83444df</v>
+      </c>
+      <c r="B129" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C129" t="str">
+        <v>星标好友</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Starred Friends</v>
+      </c>
+      <c r="E129" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F129">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>i18n_im_99655873f83444df</v>
+      </c>
+      <c r="B130" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C130" t="str">
+        <v>星标好友</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Starred Friends</v>
+      </c>
+      <c r="E130" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F130">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>i18n_im_99655873f83444df</v>
+      </c>
+      <c r="B131" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C131" t="str">
+        <v>星标好友</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Starred Friends</v>
+      </c>
+      <c r="E131" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F131">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>i18n_im_1f9926fa5582f5a1</v>
+      </c>
+      <c r="B132" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C132" t="str">
+        <v>当前设备无法拨打电话</v>
+      </c>
+      <c r="D132" t="str">
+        <v>The current device is unable to make a call</v>
+      </c>
+      <c r="E132" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F132">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>i18n_im_1f9926fa5582f5a1</v>
+      </c>
+      <c r="B133" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C133" t="str">
+        <v>当前设备无法拨打电话</v>
+      </c>
+      <c r="D133" t="str">
+        <v>The current device is unable to make a call</v>
+      </c>
+      <c r="E133" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F133">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B134" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C134" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D134" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E134" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F134">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B135" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C135" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D135" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E135" t="str">
+        <v>standard/page/ContactList.tsx</v>
+      </c>
+      <c r="F135">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>i18n_im_cf26755fe80e90bf</v>
+      </c>
+      <c r="B136" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C136" t="str">
+        <v>[有人@我]</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Someone mentioned me</v>
+      </c>
+      <c r="E136" t="str">
+        <v>standard/component/ConversationCell.tsx</v>
+      </c>
+      <c r="F136">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>i18n_im_cf26755fe80e90bf</v>
+      </c>
+      <c r="B137" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C137" t="str">
+        <v>[有人@我]</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Someone mentioned me</v>
+      </c>
+      <c r="E137" t="str">
+        <v>standard/component/ConversationCell.tsx</v>
+      </c>
+      <c r="F137">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>i18n_im_d04fcbda737fc0c6</v>
+      </c>
+      <c r="B138" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C138" t="str">
+        <v>加载中</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Loading</v>
+      </c>
+      <c r="E138" t="str">
+        <v>standard/delegate.tsx</v>
+      </c>
+      <c r="F138">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>i18n_im_d04fcbda737fc0c6</v>
+      </c>
+      <c r="B139" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C139" t="str">
+        <v>加载中</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Loading</v>
+      </c>
+      <c r="E139" t="str">
+        <v>standard/delegate.tsx</v>
+      </c>
+      <c r="F139">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B140" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C140" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D140" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E140" t="str">
+        <v>standard/delegate.tsx</v>
+      </c>
+      <c r="F140">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B141" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C141" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D141" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E141" t="str">
+        <v>standard/delegate.tsx</v>
+      </c>
+      <c r="F141">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>i18n_im_7ec815f7658576e2</v>
+      </c>
+      <c r="B142" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C142" t="str">
+        <v>条新消息</v>
+      </c>
+      <c r="D142" t="str">
+        <v>new message</v>
+      </c>
+      <c r="E142" t="str">
+        <v>standard/component/DetailListView.tsx</v>
+      </c>
+      <c r="F142">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>i18n_im_7ec815f7658576e2</v>
+      </c>
+      <c r="B143" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C143" t="str">
+        <v>条新消息</v>
+      </c>
+      <c r="D143" t="str">
+        <v>new message</v>
+      </c>
+      <c r="E143" t="str">
+        <v>standard/component/DetailListView.tsx</v>
+      </c>
+      <c r="F143">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>i18n_im_0fa0bb961120b871</v>
+      </c>
+      <c r="B144" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C144" t="str">
+        <v>无法处理该消息</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Unable to process the message</v>
+      </c>
+      <c r="E144" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F144">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>i18n_im_0fa0bb961120b871</v>
+      </c>
+      <c r="B145" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C145" t="str">
+        <v>无法处理该消息</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Unable to process the message</v>
+      </c>
+      <c r="E145" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F145">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>i18n_im_4ddf313f8a105007</v>
+      </c>
+      <c r="B146" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C146" t="str">
+        <v>撤回了一条消息</v>
+      </c>
+      <c r="D146" t="str">
+        <v>withdrew a message</v>
+      </c>
+      <c r="E146" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F146">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>i18n_im_4ddf313f8a105007</v>
+      </c>
+      <c r="B147" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C147" t="str">
+        <v>撤回了一条消息</v>
+      </c>
+      <c r="D147" t="str">
+        <v>withdrew a message</v>
+      </c>
+      <c r="E147" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>i18n_im_1955b265d56843b1</v>
+      </c>
+      <c r="B148" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C148" t="str">
+        <v>邀请</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Undang</v>
+      </c>
+      <c r="E148" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F148">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>i18n_im_66fab88b15d1b84a</v>
+      </c>
+      <c r="B149" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C149" t="str">
+        <v>加入了群聊</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Joined the group chat</v>
+      </c>
+      <c r="E149" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F149">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>i18n_im_1955b265d56843b1</v>
+      </c>
+      <c r="B150" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C150" t="str">
+        <v>邀请</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Undang</v>
+      </c>
+      <c r="E150" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F150">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>i18n_im_66fab88b15d1b84a</v>
+      </c>
+      <c r="B151" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C151" t="str">
+        <v>加入了群聊</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Joined the group chat</v>
+      </c>
+      <c r="E151" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F151">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>i18n_im_5201d174b040bc31</v>
+      </c>
+      <c r="B152" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C152" t="str">
+        <v>退出了群聊</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Leave group chat</v>
+      </c>
+      <c r="E152" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F152">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>i18n_im_8ddc53f4eaec8e24</v>
+      </c>
+      <c r="B153" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C153" t="str">
+        <v>被移出群聊</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Moved out of group chat</v>
+      </c>
+      <c r="E153" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F153">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>i18n_im_5201d174b040bc31</v>
+      </c>
+      <c r="B154" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C154" t="str">
+        <v>退出了群聊</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Leave group chat</v>
+      </c>
+      <c r="E154" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F154">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>i18n_im_8ddc53f4eaec8e24</v>
+      </c>
+      <c r="B155" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C155" t="str">
+        <v>被移出群聊</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Moved out of group chat</v>
+      </c>
+      <c r="E155" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F155">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>i18n_im_0b8b035b6960dfc7</v>
+      </c>
+      <c r="B156" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C156" t="str">
+        <v>修改群名称为</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Change group name to</v>
+      </c>
+      <c r="E156" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F156">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>i18n_im_0b8b035b6960dfc7</v>
+      </c>
+      <c r="B157" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C157" t="str">
+        <v>修改群名称为</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Change group name to</v>
+      </c>
+      <c r="E157" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F157">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>i18n_im_802a73c243b4876d</v>
+      </c>
+      <c r="B158" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C158" t="str">
+        <v>群主已经更换为</v>
+      </c>
+      <c r="D158" t="str">
+        <v>The group owner has been replaced with</v>
+      </c>
+      <c r="E158" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F158">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>i18n_im_802a73c243b4876d</v>
+      </c>
+      <c r="B159" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C159" t="str">
+        <v>群主已经更换为</v>
+      </c>
+      <c r="D159" t="str">
+        <v>The group owner has been replaced with</v>
+      </c>
+      <c r="E159" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F159">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>i18n_im_a0c7716669b5ded0</v>
+      </c>
+      <c r="B160" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C160" t="str">
+        <v>你</v>
+      </c>
+      <c r="D160" t="str">
+        <v>You</v>
+      </c>
+      <c r="E160" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F160">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>i18n_im_a0c7716669b5ded0</v>
+      </c>
+      <c r="B161" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C161" t="str">
+        <v>你</v>
+      </c>
+      <c r="D161" t="str">
+        <v>You</v>
+      </c>
+      <c r="E161" t="str">
+        <v>standard/model/external.ts</v>
+      </c>
+      <c r="F161">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>i18n_im_071b374af1b861ac</v>
+      </c>
+      <c r="B162" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C162" t="str">
+        <v>返回顶部</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Return to top of page</v>
+      </c>
+      <c r="E162" t="str">
+        <v>standard/component/FixedSectionList.tsx</v>
+      </c>
+      <c r="F162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>i18n_im_071b374af1b861ac</v>
+      </c>
+      <c r="B163" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C163" t="str">
+        <v>返回顶部</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Return to top of page</v>
+      </c>
+      <c r="E163" t="str">
+        <v>standard/component/FixedSectionList.tsx</v>
+      </c>
+      <c r="F163">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>i18n_im_a3030bf8f16dc63c</v>
+      </c>
+      <c r="B164" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C164" t="str">
+        <v>保存</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Save</v>
+      </c>
+      <c r="E164" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F164">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>i18n_im_a3030bf8f16dc63c</v>
+      </c>
+      <c r="B165" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C165" t="str">
+        <v>保存</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Save</v>
+      </c>
+      <c r="E165" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F165">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>i18n_im_99728d0e0224c355</v>
+      </c>
+      <c r="B166" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C166" t="str">
+        <v>群公告</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Grupo Notice</v>
+      </c>
+      <c r="E166" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F166">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>i18n_im_99728d0e0224c355</v>
+      </c>
+      <c r="B167" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C167" t="str">
+        <v>群公告</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Grupo Notice</v>
+      </c>
+      <c r="E167" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F167">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>i18n_im_0a59be271a44ca8b</v>
+      </c>
+      <c r="B168" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C168" t="str">
+        <v>请输入群公告内容</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Please enter group announcement content</v>
+      </c>
+      <c r="E168" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F168">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>i18n_im_0a59be271a44ca8b</v>
+      </c>
+      <c r="B169" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C169" t="str">
+        <v>请输入群公告内容</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Please enter group announcement content</v>
+      </c>
+      <c r="E169" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F169">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>i18n_im_e05ddf992cc50896</v>
+      </c>
+      <c r="B170" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C170" t="str">
+        <v>保存成功</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Save successful.</v>
+      </c>
+      <c r="E170" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F170">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>i18n_im_e05ddf992cc50896</v>
+      </c>
+      <c r="B171" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C171" t="str">
+        <v>保存成功</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Save successful.</v>
+      </c>
+      <c r="E171" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F171">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>i18n_im_6309a3bb5ba4c714</v>
+      </c>
+      <c r="B172" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C172" t="str">
+        <v>保存失败</v>
+      </c>
+      <c r="D172" t="str">
+        <v>save failed</v>
+      </c>
+      <c r="E172" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F172">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>i18n_im_6309a3bb5ba4c714</v>
+      </c>
+      <c r="B173" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C173" t="str">
+        <v>保存失败</v>
+      </c>
+      <c r="D173" t="str">
+        <v>save failed</v>
+      </c>
+      <c r="E173" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F173">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>i18n_im_b6c9b231fbf6a5e4</v>
+      </c>
+      <c r="B174" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C174" t="str">
+        <v>@所有人</v>
+      </c>
+      <c r="D174" t="str">
+        <v>All</v>
+      </c>
+      <c r="E174" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F174">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>i18n_im_b6c9b231fbf6a5e4</v>
+      </c>
+      <c r="B175" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C175" t="str">
+        <v>@所有人</v>
+      </c>
+      <c r="D175" t="str">
+        <v>All</v>
+      </c>
+      <c r="E175" t="str">
+        <v>standard/page/GroupAnnouncementEdit.tsx</v>
+      </c>
+      <c r="F175">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>i18n_im_8e086745d38948eb</v>
+      </c>
+      <c r="B176" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C176" t="str">
+        <v>加载群列表失败</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Failed to load group list</v>
+      </c>
+      <c r="E176" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F176">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>i18n_im_8e086745d38948eb</v>
+      </c>
+      <c r="B177" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C177" t="str">
+        <v>加载群列表失败</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Failed to load group list</v>
+      </c>
+      <c r="E177" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F177">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>i18n_im_35b49ee58a4a0e82</v>
+      </c>
+      <c r="B178" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C178" t="str">
+        <v>群聊</v>
+      </c>
+      <c r="D178" t="str">
+        <v>group chat</v>
+      </c>
+      <c r="E178" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F178">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>i18n_im_35b49ee58a4a0e82</v>
+      </c>
+      <c r="B179" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C179" t="str">
+        <v>群聊</v>
+      </c>
+      <c r="D179" t="str">
+        <v>group chat</v>
+      </c>
+      <c r="E179" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F179">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>i18n_im_44ce7ae909bbb28b</v>
+      </c>
+      <c r="B180" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C180" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Cari</v>
+      </c>
+      <c r="E180" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F180">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>i18n_im_44ce7ae909bbb28b</v>
+      </c>
+      <c r="B181" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C181" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Cari</v>
+      </c>
+      <c r="E181" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F181">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>i18n_im_50f5d65d57290f75</v>
+      </c>
+      <c r="B182" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C182" t="str">
+        <v>人</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Pemain</v>
+      </c>
+      <c r="E182" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F182">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>i18n_im_50f5d65d57290f75</v>
+      </c>
+      <c r="B183" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C183" t="str">
+        <v>人</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Pemain</v>
+      </c>
+      <c r="E183" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F183">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>i18n_im_e660a4d6b0bfc245</v>
+      </c>
+      <c r="B184" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C184" t="str">
+        <v>个群聊</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Group chats</v>
+      </c>
+      <c r="E184" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F184">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>i18n_im_e660a4d6b0bfc245</v>
+      </c>
+      <c r="B185" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C185" t="str">
+        <v>个群聊</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Group chats</v>
+      </c>
+      <c r="E185" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F185">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>i18n_im_99fb2263ba473236</v>
+      </c>
+      <c r="B186" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C186" t="str">
+        <v>搜索群名称、群成员</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Search group name, group members</v>
+      </c>
+      <c r="E186" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F186">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>i18n_im_99fb2263ba473236</v>
+      </c>
+      <c r="B187" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C187" t="str">
+        <v>搜索群名称、群成员</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Search group name, group members</v>
+      </c>
+      <c r="E187" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F187">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>i18n_im_76e547a8fa546381</v>
+      </c>
+      <c r="B188" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C188" t="str">
+        <v>共</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Total</v>
+      </c>
+      <c r="E188" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F188">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>i18n_im_50f5d65d57290f75</v>
+      </c>
+      <c r="B189" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C189" t="str">
+        <v>人</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Pemain</v>
+      </c>
+      <c r="E189" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F189">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>i18n_im_76e547a8fa546381</v>
+      </c>
+      <c r="B190" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C190" t="str">
+        <v>共</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Total</v>
+      </c>
+      <c r="E190" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F190">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>i18n_im_50f5d65d57290f75</v>
+      </c>
+      <c r="B191" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C191" t="str">
+        <v>人</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Pemain</v>
+      </c>
+      <c r="E191" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F191">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>i18n_im_85ce71acbbc8057a</v>
+      </c>
+      <c r="B192" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C192" t="str">
         <v>群成员：</v>
       </c>
-      <c r="C128" t="str">
+      <c r="D192" t="str">
         <v>Group members</v>
       </c>
-      <c r="D128" t="str">
+      <c r="E192" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F192">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>i18n_im_85ce71acbbc8057a</v>
+      </c>
+      <c r="B193" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C193" t="str">
+        <v>群成员：</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Group members</v>
+      </c>
+      <c r="E193" t="str">
+        <v>standard/page/GroupList.tsx</v>
+      </c>
+      <c r="F193">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>i18n_im_7a8a11ead50742a2</v>
+      </c>
+      <c r="B194" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C194" t="str">
+        <v>添加</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Tambah</v>
+      </c>
+      <c r="E194" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F194">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>i18n_im_7a8a11ead50742a2</v>
+      </c>
+      <c r="B195" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C195" t="str">
+        <v>添加</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Tambah</v>
+      </c>
+      <c r="E195" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F195">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>i18n_im_9d8692671d208b74</v>
+      </c>
+      <c r="B196" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C196" t="str">
+        <v>群成员</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Group members</v>
+      </c>
+      <c r="E196" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F196">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>i18n_im_9d8692671d208b74</v>
+      </c>
+      <c r="B197" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C197" t="str">
+        <v>群成员</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Group members</v>
+      </c>
+      <c r="E197" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F197">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>i18n_im_2f9daa828907b93f</v>
+      </c>
+      <c r="B198" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C198" t="str">
+        <v>删除</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Delete</v>
+      </c>
+      <c r="E198" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F198">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B199" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C199" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E199" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F199">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>i18n_im_2f9daa828907b93f</v>
+      </c>
+      <c r="B200" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C200" t="str">
+        <v>删除</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Delete</v>
+      </c>
+      <c r="E200" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F200">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B201" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C201" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E201" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F201">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>i18n_im_81d4acd17ee028f1</v>
+      </c>
+      <c r="B202" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C202" t="str">
+        <v>群主</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Group Admins</v>
+      </c>
+      <c r="E202" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F202">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>i18n_im_81d4acd17ee028f1</v>
+      </c>
+      <c r="B203" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C203" t="str">
+        <v>群主</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Group Admins</v>
+      </c>
+      <c r="E203" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F203">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>i18n_im_0eabb74eaf726370</v>
+      </c>
+      <c r="B204" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C204" t="str">
+        <v>添加群成员</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Add group members</v>
+      </c>
+      <c r="E204" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F204">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>i18n_im_0eabb74eaf726370</v>
+      </c>
+      <c r="B205" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C205" t="str">
+        <v>添加群成员</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Add group members</v>
+      </c>
+      <c r="E205" t="str">
+        <v>standard/page/GroupMembers.tsx</v>
+      </c>
+      <c r="F205">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>i18n_im_661a0f6971841411</v>
+      </c>
+      <c r="B206" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C206" t="str">
+        <v>修改群聊名称</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Change group chat name</v>
+      </c>
+      <c r="E206" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F206">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>i18n_im_661a0f6971841411</v>
+      </c>
+      <c r="B207" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C207" t="str">
+        <v>修改群聊名称</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Change group chat name</v>
+      </c>
+      <c r="E207" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F207">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>i18n_im_81d967ce93415779</v>
+      </c>
+      <c r="B208" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C208" t="str">
+        <v>请输入群名</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Please enter a group name</v>
+      </c>
+      <c r="E208" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F208">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>i18n_im_81d967ce93415779</v>
+      </c>
+      <c r="B209" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C209" t="str">
+        <v>请输入群名</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Please enter a group name</v>
+      </c>
+      <c r="E209" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F209">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>i18n_im_c0b3fbff51ccc40b</v>
+      </c>
+      <c r="B210" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C210" t="str">
+        <v>完成</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Completed</v>
+      </c>
+      <c r="E210" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F210">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>i18n_im_c0b3fbff51ccc40b</v>
+      </c>
+      <c r="B211" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C211" t="str">
+        <v>完成</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Completed</v>
+      </c>
+      <c r="E211" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F211">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>i18n_im_80554a49f3f890eb</v>
+      </c>
+      <c r="B212" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C212" t="str">
+        <v>群聊名称不能为空</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Group chat name cannot be empty</v>
+      </c>
+      <c r="E212" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F212">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>i18n_im_80554a49f3f890eb</v>
+      </c>
+      <c r="B213" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C213" t="str">
+        <v>群聊名称不能为空</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Group chat name cannot be empty</v>
+      </c>
+      <c r="E213" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F213">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>i18n_im_e05ddf992cc50896</v>
+      </c>
+      <c r="B214" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C214" t="str">
+        <v>保存成功</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Save successful.</v>
+      </c>
+      <c r="E214" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F214">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>i18n_im_e05ddf992cc50896</v>
+      </c>
+      <c r="B215" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C215" t="str">
+        <v>保存成功</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Save successful.</v>
+      </c>
+      <c r="E215" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F215">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>i18n_im_6309a3bb5ba4c714</v>
+      </c>
+      <c r="B216" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C216" t="str">
+        <v>保存失败</v>
+      </c>
+      <c r="D216" t="str">
+        <v>save failed</v>
+      </c>
+      <c r="E216" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F216">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>i18n_im_6309a3bb5ba4c714</v>
+      </c>
+      <c r="B217" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C217" t="str">
+        <v>保存失败</v>
+      </c>
+      <c r="D217" t="str">
+        <v>save failed</v>
+      </c>
+      <c r="E217" t="str">
+        <v>standard/page/GroupNameEdit.tsx</v>
+      </c>
+      <c r="F217">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>i18n_im_ae2493cbdfcdc366</v>
+      </c>
+      <c r="B218" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C218" t="str">
+        <v>暂不支持发送该消息类型</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Sending this message type is temporarily unsupported</v>
+      </c>
+      <c r="E218" t="str">
+        <v>standard/model/message.ts</v>
+      </c>
+      <c r="F218">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>i18n_im_ae2493cbdfcdc366</v>
+      </c>
+      <c r="B219" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C219" t="str">
+        <v>暂不支持发送该消息类型</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Sending this message type is temporarily unsupported</v>
+      </c>
+      <c r="E219" t="str">
+        <v>standard/model/message.ts</v>
+      </c>
+      <c r="F219">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>i18n_im_b9c65332a57fb427</v>
+      </c>
+      <c r="B220" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C220" t="str">
+        <v>:[图片]</v>
+      </c>
+      <c r="D220" t="str">
+        <v>[Picture]</v>
+      </c>
+      <c r="E220" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F220">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>i18n_im_b9c65332a57fb427</v>
+      </c>
+      <c r="B221" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C221" t="str">
+        <v>:[图片]</v>
+      </c>
+      <c r="D221" t="str">
+        <v>[Picture]</v>
+      </c>
+      <c r="E221" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F221">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>i18n_im_77430a0d2bed04f2</v>
+      </c>
+      <c r="B222" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C222" t="str">
+        <v>:[视频]</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Insert Video</v>
+      </c>
+      <c r="E222" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F222">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>i18n_im_77430a0d2bed04f2</v>
+      </c>
+      <c r="B223" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C223" t="str">
+        <v>:[视频]</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Insert Video</v>
+      </c>
+      <c r="E223" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F223">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>i18n_im_2d6fd2ad327211a5</v>
+      </c>
+      <c r="B224" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C224" t="str">
+        <v>:[位置]</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Location</v>
+      </c>
+      <c r="E224" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F224">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>i18n_im_2d6fd2ad327211a5</v>
+      </c>
+      <c r="B225" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C225" t="str">
+        <v>:[位置]</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Location</v>
+      </c>
+      <c r="E225" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F225">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>i18n_im_f00e44feec93335e</v>
+      </c>
+      <c r="B226" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C226" t="str">
+        <v>:[文件]</v>
+      </c>
+      <c r="D226" t="str">
+        <v xml:space="preserve"> file</v>
+      </c>
+      <c r="E226" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F226">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>i18n_im_f00e44feec93335e</v>
+      </c>
+      <c r="B227" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C227" t="str">
+        <v>:[文件]</v>
+      </c>
+      <c r="D227" t="str">
+        <v xml:space="preserve"> file</v>
+      </c>
+      <c r="E227" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F227">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>i18n_im_c5f393e5f1ebdae8</v>
+      </c>
+      <c r="B228" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C228" t="str">
+        <v>:[资料]</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Info</v>
+      </c>
+      <c r="E228" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F228">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>i18n_im_c5f393e5f1ebdae8</v>
+      </c>
+      <c r="B229" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C229" t="str">
+        <v>:[资料]</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Info</v>
+      </c>
+      <c r="E229" t="str">
+        <v>standard/model/quote.ts</v>
+      </c>
+      <c r="F229">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>i18n_im_a1f5d5fcbdc4d510</v>
+      </c>
+      <c r="B230" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C230" t="str">
+        <v>员工</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Employees</v>
+      </c>
+      <c r="E230" t="str">
         <v>standard/page/Search.tsx</v>
       </c>
-      <c r="E128">
+      <c r="F230">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>i18n_im_a1f5d5fcbdc4d510</v>
+      </c>
+      <c r="B231" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C231" t="str">
+        <v>员工</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Employees</v>
+      </c>
+      <c r="E231" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F231">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>i18n_im_35b49ee58a4a0e82</v>
+      </c>
+      <c r="B232" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C232" t="str">
+        <v>群聊</v>
+      </c>
+      <c r="D232" t="str">
+        <v>group chat</v>
+      </c>
+      <c r="E232" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F232">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>i18n_im_35b49ee58a4a0e82</v>
+      </c>
+      <c r="B233" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C233" t="str">
+        <v>群聊</v>
+      </c>
+      <c r="D233" t="str">
+        <v>group chat</v>
+      </c>
+      <c r="E233" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F233">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>i18n_im_44ce7ae909bbb28b</v>
+      </c>
+      <c r="B234" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C234" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Cari</v>
+      </c>
+      <c r="E234" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F234">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>i18n_im_44ce7ae909bbb28b</v>
+      </c>
+      <c r="B235" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C235" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="D235" t="str">
+        <v>Cari</v>
+      </c>
+      <c r="E235" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F235">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>i18n_im_06657c279571d394</v>
+      </c>
+      <c r="B236" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C236" t="str">
+        <v>通讯录</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Address Book</v>
+      </c>
+      <c r="E236" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F236">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>i18n_im_06657c279571d394</v>
+      </c>
+      <c r="B237" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C237" t="str">
+        <v>通讯录</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Address Book</v>
+      </c>
+      <c r="E237" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F237">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>i18n_im_35b49ee58a4a0e82</v>
+      </c>
+      <c r="B238" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C238" t="str">
+        <v>群聊</v>
+      </c>
+      <c r="D238" t="str">
+        <v>group chat</v>
+      </c>
+      <c r="E238" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F238">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>i18n_im_35b49ee58a4a0e82</v>
+      </c>
+      <c r="B239" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C239" t="str">
+        <v>群聊</v>
+      </c>
+      <c r="D239" t="str">
+        <v>group chat</v>
+      </c>
+      <c r="E239" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F239">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>i18n_im_06657c279571d394</v>
+      </c>
+      <c r="B240" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C240" t="str">
+        <v>通讯录</v>
+      </c>
+      <c r="D240" t="str">
+        <v>Address Book</v>
+      </c>
+      <c r="E240" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F240">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>i18n_im_06657c279571d394</v>
+      </c>
+      <c r="B241" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C241" t="str">
+        <v>通讯录</v>
+      </c>
+      <c r="D241" t="str">
+        <v>Address Book</v>
+      </c>
+      <c r="E241" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F241">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>i18n_im_76e547a8fa546381</v>
+      </c>
+      <c r="B242" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C242" t="str">
+        <v>共</v>
+      </c>
+      <c r="D242" t="str">
+        <v>Total</v>
+      </c>
+      <c r="E242" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F242">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>i18n_im_50f5d65d57290f75</v>
+      </c>
+      <c r="B243" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C243" t="str">
+        <v>人</v>
+      </c>
+      <c r="D243" t="str">
+        <v>Pemain</v>
+      </c>
+      <c r="E243" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F243">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>i18n_im_76e547a8fa546381</v>
+      </c>
+      <c r="B244" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C244" t="str">
+        <v>共</v>
+      </c>
+      <c r="D244" t="str">
+        <v>Total</v>
+      </c>
+      <c r="E244" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F244">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>i18n_im_50f5d65d57290f75</v>
+      </c>
+      <c r="B245" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C245" t="str">
+        <v>人</v>
+      </c>
+      <c r="D245" t="str">
+        <v>Pemain</v>
+      </c>
+      <c r="E245" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F245">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>i18n_im_85ce71acbbc8057a</v>
+      </c>
+      <c r="B246" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C246" t="str">
+        <v>群成员：</v>
+      </c>
+      <c r="D246" t="str">
+        <v>Group members</v>
+      </c>
+      <c r="E246" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F246">
         <v>202</v>
       </c>
-      <c r="F128" t="str">
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
         <v>i18n_im_85ce71acbbc8057a</v>
       </c>
+      <c r="B247" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C247" t="str">
+        <v>群成员：</v>
+      </c>
+      <c r="D247" t="str">
+        <v>Group members</v>
+      </c>
+      <c r="E247" t="str">
+        <v>standard/page/Search.tsx</v>
+      </c>
+      <c r="F247">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>i18n_im_88d91fa49b2c19a9</v>
+      </c>
+      <c r="B248" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C248" t="str">
+        <v>没有结果</v>
+      </c>
+      <c r="D248" t="str">
+        <v>No results.</v>
+      </c>
+      <c r="E248" t="str">
+        <v>standard/component/SearchList.tsx</v>
+      </c>
+      <c r="F248">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>i18n_im_88d91fa49b2c19a9</v>
+      </c>
+      <c r="B249" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C249" t="str">
+        <v>没有结果</v>
+      </c>
+      <c r="D249" t="str">
+        <v>No results.</v>
+      </c>
+      <c r="E249" t="str">
+        <v>standard/component/SearchList.tsx</v>
+      </c>
+      <c r="F249">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>i18n_im_f244a2842f425c27</v>
+      </c>
+      <c r="B250" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C250" t="str">
+        <v>搜索历史</v>
+      </c>
+      <c r="D250" t="str">
+        <v>Search history:</v>
+      </c>
+      <c r="E250" t="str">
+        <v>standard/component/SearchList.tsx</v>
+      </c>
+      <c r="F250">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>i18n_im_f244a2842f425c27</v>
+      </c>
+      <c r="B251" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C251" t="str">
+        <v>搜索历史</v>
+      </c>
+      <c r="D251" t="str">
+        <v>Search history:</v>
+      </c>
+      <c r="E251" t="str">
+        <v>standard/component/SearchList.tsx</v>
+      </c>
+      <c r="F251">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>i18n_im_0451c77017f6bcdb</v>
+      </c>
+      <c r="B252" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C252" t="str">
+        <v>暂无搜索历史</v>
+      </c>
+      <c r="D252" t="str">
+        <v>No search history yet</v>
+      </c>
+      <c r="E252" t="str">
+        <v>standard/component/SearchList.tsx</v>
+      </c>
+      <c r="F252">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>i18n_im_0451c77017f6bcdb</v>
+      </c>
+      <c r="B253" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C253" t="str">
+        <v>暂无搜索历史</v>
+      </c>
+      <c r="D253" t="str">
+        <v>No search history yet</v>
+      </c>
+      <c r="E253" t="str">
+        <v>standard/component/SearchList.tsx</v>
+      </c>
+      <c r="F253">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>i18n_im_38844b135cf70dfc</v>
+      </c>
+      <c r="B254" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C254" t="str">
+        <v>更多</v>
+      </c>
+      <c r="D254" t="str">
+        <v>更多/More info</v>
+      </c>
+      <c r="E254" t="str">
+        <v>standard/component/SearchList.tsx</v>
+      </c>
+      <c r="F254">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>i18n_im_38844b135cf70dfc</v>
+      </c>
+      <c r="B255" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C255" t="str">
+        <v>更多</v>
+      </c>
+      <c r="D255" t="str">
+        <v>更多/More info</v>
+      </c>
+      <c r="E255" t="str">
+        <v>standard/component/SearchList.tsx</v>
+      </c>
+      <c r="F255">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>i18n_im_071b374af1b861ac</v>
+      </c>
+      <c r="B256" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C256" t="str">
+        <v>返回顶部</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Return to top of page</v>
+      </c>
+      <c r="E256" t="str">
+        <v>standard/component/SeekBarSectionList.tsx</v>
+      </c>
+      <c r="F256">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>i18n_im_071b374af1b861ac</v>
+      </c>
+      <c r="B257" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C257" t="str">
+        <v>返回顶部</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Return to top of page</v>
+      </c>
+      <c r="E257" t="str">
+        <v>standard/component/SeekBarSectionList.tsx</v>
+      </c>
+      <c r="F257">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="L208"/>
-    <hyperlink ref="A3" r:id="rId2" location="L84"/>
-    <hyperlink ref="A4" r:id="rId3" location="L178"/>
-    <hyperlink ref="A5" r:id="rId4" location="L178"/>
-    <hyperlink ref="A6" r:id="rId5" location="L198"/>
-    <hyperlink ref="A7" r:id="rId6" location="L201"/>
-    <hyperlink ref="A8" r:id="rId7" location="L204"/>
-    <hyperlink ref="A9" r:id="rId8" location="L207"/>
-    <hyperlink ref="A10" r:id="rId9" location="L210"/>
-    <hyperlink ref="A11" r:id="rId10" location="L273"/>
-    <hyperlink ref="A12" r:id="rId11" location="L342"/>
-    <hyperlink ref="A13" r:id="rId12" location="L409"/>
-    <hyperlink ref="A14" r:id="rId13" location="L437"/>
-    <hyperlink ref="A15" r:id="rId14" location="L505"/>
-    <hyperlink ref="A16" r:id="rId15" location="L522"/>
-    <hyperlink ref="A17" r:id="rId16" location="L99"/>
-    <hyperlink ref="A18" r:id="rId17" location="L109"/>
-    <hyperlink ref="A19" r:id="rId18" location="L160"/>
-    <hyperlink ref="A20" r:id="rId19" location="L70"/>
-    <hyperlink ref="A21" r:id="rId20" location="L103"/>
-    <hyperlink ref="A22" r:id="rId21" location="L119"/>
-    <hyperlink ref="A23" r:id="rId22" location="L153"/>
-    <hyperlink ref="A24" r:id="rId23" location="L63"/>
-    <hyperlink ref="A25" r:id="rId24" location="L144"/>
-    <hyperlink ref="A26" r:id="rId25" location="L147"/>
-    <hyperlink ref="A27" r:id="rId26" location="L27"/>
-    <hyperlink ref="A28" r:id="rId27" location="L50"/>
-    <hyperlink ref="A29" r:id="rId28" location="L81"/>
-    <hyperlink ref="A30" r:id="rId29" location="L81"/>
-    <hyperlink ref="A31" r:id="rId30" location="L96"/>
-    <hyperlink ref="A32" r:id="rId31" location="L96"/>
-    <hyperlink ref="A33" r:id="rId32" location="L119"/>
-    <hyperlink ref="A34" r:id="rId33" location="L130"/>
-    <hyperlink ref="A35" r:id="rId34" location="L143"/>
-    <hyperlink ref="A36" r:id="rId35" location="L40"/>
-    <hyperlink ref="A37" r:id="rId36" location="L47"/>
-    <hyperlink ref="A38" r:id="rId37" location="L50"/>
-    <hyperlink ref="A39" r:id="rId38" location="L53"/>
-    <hyperlink ref="A40" r:id="rId39" location="L56"/>
-    <hyperlink ref="A41" r:id="rId40" location="L59"/>
-    <hyperlink ref="A42" r:id="rId41" location="L130"/>
-    <hyperlink ref="A43" r:id="rId42" location="L137"/>
-    <hyperlink ref="A44" r:id="rId43" location="L138"/>
-    <hyperlink ref="A45" r:id="rId44" location="L140"/>
-    <hyperlink ref="A46" r:id="rId45" location="L149"/>
-    <hyperlink ref="A47" r:id="rId46" location="L165"/>
-    <hyperlink ref="A48" r:id="rId47" location="L215"/>
-    <hyperlink ref="A49" r:id="rId48" location="L352"/>
-    <hyperlink ref="A50" r:id="rId49" location="L354"/>
-    <hyperlink ref="A51" r:id="rId50" location="L359"/>
-    <hyperlink ref="A52" r:id="rId51" location="L361"/>
-    <hyperlink ref="A53" r:id="rId52" location="L399"/>
-    <hyperlink ref="A54" r:id="rId53" location="L404"/>
-    <hyperlink ref="A55" r:id="rId54" location="L416"/>
-    <hyperlink ref="A56" r:id="rId55" location="L420"/>
-    <hyperlink ref="A57" r:id="rId56" location="L424"/>
-    <hyperlink ref="A58" r:id="rId57" location="L425"/>
-    <hyperlink ref="A59" r:id="rId58" location="L427"/>
-    <hyperlink ref="A60" r:id="rId59" location="L443"/>
-    <hyperlink ref="A61" r:id="rId60" location="L449"/>
-    <hyperlink ref="A62" r:id="rId61" location="L450"/>
-    <hyperlink ref="A63" r:id="rId62" location="L13"/>
-    <hyperlink ref="A64" r:id="rId63" location="L84"/>
-    <hyperlink ref="A65" r:id="rId64" location="L84"/>
-    <hyperlink ref="A66" r:id="rId65" location="L88"/>
-    <hyperlink ref="A67" r:id="rId66" location="L88"/>
-    <hyperlink ref="A68" r:id="rId67" location="L102"/>
-    <hyperlink ref="A69" r:id="rId68" location="L133"/>
-    <hyperlink ref="A70" r:id="rId69" location="L154"/>
-    <hyperlink ref="A71" r:id="rId70" location="L12"/>
-    <hyperlink ref="A72" r:id="rId71" location="L12"/>
-    <hyperlink ref="A73" r:id="rId72" location="L40"/>
-    <hyperlink ref="A74" r:id="rId73" location="L43"/>
-    <hyperlink ref="A75" r:id="rId74" location="L46"/>
-    <hyperlink ref="A76" r:id="rId75" location="L78"/>
-    <hyperlink ref="A77" r:id="rId76" location="L133"/>
-    <hyperlink ref="A78" r:id="rId77" location="L49"/>
-    <hyperlink ref="A79" r:id="rId78" location="L55"/>
-    <hyperlink ref="A80" r:id="rId79" location="L102"/>
-    <hyperlink ref="A81" r:id="rId80" location="L115"/>
-    <hyperlink ref="A82" r:id="rId81" location="L184"/>
-    <hyperlink ref="A83" r:id="rId82" location="L200"/>
-    <hyperlink ref="A84" r:id="rId83" location="L65"/>
-    <hyperlink ref="A85" r:id="rId84" location="L70"/>
-    <hyperlink ref="A86" r:id="rId85" location="L220"/>
-    <hyperlink ref="A87" r:id="rId86" location="L68"/>
-    <hyperlink ref="A88" r:id="rId87" location="L71"/>
-    <hyperlink ref="A89" r:id="rId88" location="L188"/>
-    <hyperlink ref="A90" r:id="rId89" location="L217"/>
-    <hyperlink ref="A91" r:id="rId90" location="L233"/>
-    <hyperlink ref="A92" r:id="rId91" location="L234"/>
-    <hyperlink ref="A93" r:id="rId92" location="L58"/>
-    <hyperlink ref="A94" r:id="rId93" location="L69"/>
-    <hyperlink ref="A95" r:id="rId94" location="L76"/>
-    <hyperlink ref="A96" r:id="rId95" location="L105"/>
-    <hyperlink ref="A97" r:id="rId96" location="L110"/>
-    <hyperlink ref="A98" r:id="rId97" location="L117"/>
-    <hyperlink ref="A99" r:id="rId98" location="L32"/>
-    <hyperlink ref="A100" r:id="rId99" location="L45"/>
-    <hyperlink ref="A101" r:id="rId100" location="L48"/>
-    <hyperlink ref="A102" r:id="rId101" location="L71"/>
-    <hyperlink ref="A103" r:id="rId102" location="L91"/>
-    <hyperlink ref="A104" r:id="rId103" location="L108"/>
-    <hyperlink ref="A105" r:id="rId104" location="L156"/>
-    <hyperlink ref="A106" r:id="rId105" location="L156"/>
-    <hyperlink ref="A107" r:id="rId106" location="L197"/>
-    <hyperlink ref="A108" r:id="rId107" location="L39"/>
-    <hyperlink ref="A109" r:id="rId108" location="L45"/>
-    <hyperlink ref="A110" r:id="rId109" location="L103"/>
-    <hyperlink ref="A111" r:id="rId110" location="L103"/>
-    <hyperlink ref="A112" r:id="rId111" location="L131"/>
-    <hyperlink ref="A113" r:id="rId112" location="L151"/>
-    <hyperlink ref="A114" r:id="rId113" location="L68"/>
-    <hyperlink ref="A115" r:id="rId114" location="L78"/>
-    <hyperlink ref="A116" r:id="rId115" location="L95"/>
-    <hyperlink ref="A117" r:id="rId116" location="L111"/>
-    <hyperlink ref="A118" r:id="rId117" location="L119"/>
-    <hyperlink ref="A119" r:id="rId118" location="L124"/>
-    <hyperlink ref="A120" r:id="rId119" location="L52"/>
-    <hyperlink ref="A121" r:id="rId120" location="L55"/>
-    <hyperlink ref="A122" r:id="rId121" location="L57"/>
-    <hyperlink ref="A123" r:id="rId122" location="L83"/>
-    <hyperlink ref="A124" r:id="rId123" location="L112"/>
-    <hyperlink ref="A125" r:id="rId124" location="L152"/>
-    <hyperlink ref="A126" r:id="rId125" location="L161"/>
-    <hyperlink ref="A127" r:id="rId126" location="L161"/>
-    <hyperlink ref="A128" r:id="rId127" location="L202"/>
-  </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F128"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F257"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>key</v>
+      </c>
+      <c r="B1" t="str">
         <v>gitlab</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>zh</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>en</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>file</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>line</v>
-      </c>
-      <c r="F1" t="str">
-        <v>key</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>链接</v>
+        <v>i18n_im_0008801ffbb89e4f</v>
       </c>
       <c r="B2" t="str">
-        <v>[文件]</v>
+        <v>链接</v>
       </c>
       <c r="C2" t="str">
-        <v>[file]</v>
+        <v>查看全体群成员({{MemberExpression1}})</v>
       </c>
       <c r="D2" t="str">
-        <v>plugin/message/abstract/FileAbstract.ts</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2" t="str">
-        <v>i18n_im_54e20fcfb5abb867</v>
+        <v>View all group members ({{MemberExpression1}})</v>
+      </c>
+      <c r="E2" t="str">
+        <v>plugin/setting/AllMembers.tsx</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>链接</v>
+        <v>i18n_im_0008801ffbb89e4f</v>
       </c>
       <c r="B3" t="str">
-        <v>[图片]</v>
+        <v>链接</v>
       </c>
       <c r="C3" t="str">
-        <v>[picture]</v>
+        <v>查看全体群成员({{MemberExpression1}})</v>
       </c>
       <c r="D3" t="str">
-        <v>plugin/message/abstract/ImageAbstract.ts</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" t="str">
-        <v>i18n_im_a71f445d35779ede</v>
+        <v>View all group members ({{MemberExpression1}})</v>
+      </c>
+      <c r="E3" t="str">
+        <v>plugin/setting/AllMembers.tsx</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>链接</v>
+        <v>i18n_im_9d2bfa502dca48bd</v>
       </c>
       <c r="B4" t="str">
-        <v>[我的位置]</v>
+        <v>链接</v>
       </c>
       <c r="C4" t="str">
-        <v>My location</v>
+        <v>允许添加成员</v>
       </c>
       <c r="D4" t="str">
-        <v>plugin/message/abstract/LocationAbstract.ts</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4" t="str">
-        <v>i18n_im_19f3c787e8e28c53</v>
+        <v>Allow members to be added</v>
+      </c>
+      <c r="E4" t="str">
+        <v>plugin/setting/AllowInvite.tsx</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>链接</v>
+        <v>i18n_im_9d2bfa502dca48bd</v>
       </c>
       <c r="B5" t="str">
-        <v>的位置]</v>
+        <v>链接</v>
       </c>
       <c r="C5" t="str">
-        <v>Location of "%s"</v>
+        <v>允许添加成员</v>
       </c>
       <c r="D5" t="str">
-        <v>plugin/message/abstract/LocationAbstract.ts</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="str">
-        <v>i18n_im_fee7e8072ac6fff3</v>
+        <v>Allow members to be added</v>
+      </c>
+      <c r="E5" t="str">
+        <v>plugin/setting/AllowInvite.tsx</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>链接</v>
+        <v>i18n_im_7cfdd71e7e3c1cf7</v>
       </c>
       <c r="B6" t="str">
-        <v>[视频]</v>
+        <v>链接</v>
       </c>
       <c r="C6" t="str">
-        <v>[video]</v>
+        <v>更新设置失败</v>
       </c>
       <c r="D6" t="str">
-        <v>plugin/message/abstract/VideoAbstract.ts</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6" t="str">
-        <v>i18n_im_da5d0399eba80b23</v>
+        <v>Update of settings failed</v>
+      </c>
+      <c r="E6" t="str">
+        <v>plugin/setting/AllowInvite.tsx</v>
+      </c>
+      <c r="F6">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>链接</v>
+        <v>i18n_im_7cfdd71e7e3c1cf7</v>
       </c>
       <c r="B7" t="str">
-        <v>[语音]</v>
+        <v>链接</v>
       </c>
       <c r="C7" t="str">
-        <v>[voice]</v>
+        <v>更新设置失败</v>
       </c>
       <c r="D7" t="str">
-        <v>plugin/message/abstract/VoiceAbstract.ts</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" t="str">
-        <v>i18n_im_fee630ed574669c1</v>
+        <v>Update of settings failed</v>
+      </c>
+      <c r="E7" t="str">
+        <v>plugin/setting/AllowInvite.tsx</v>
+      </c>
+      <c r="F7">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>链接</v>
+        <v>i18n_im_5c3604c325ee4b6e</v>
       </c>
       <c r="B8" t="str">
-        <v>当前版本暂不支持该消息</v>
+        <v>链接</v>
       </c>
       <c r="C8" t="str">
-        <v>This message is not supported in the current version</v>
+        <v>消息免打扰</v>
       </c>
       <c r="D8" t="str">
-        <v>plugin/message/display/GeneralBubble.tsx</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8" t="str">
-        <v>i18n_im_e27a38d64646b5fa</v>
+        <v>Message DND</v>
+      </c>
+      <c r="E8" t="str">
+        <v>plugin/setting/Avoid.tsx</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>链接</v>
+        <v>i18n_im_5c3604c325ee4b6e</v>
       </c>
       <c r="B9" t="str">
-        <v>文件</v>
+        <v>链接</v>
       </c>
       <c r="C9" t="str">
-        <v>Files</v>
+        <v>消息免打扰</v>
       </c>
       <c r="D9" t="str">
-        <v>plugin/message/moreboard/file.ts</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9" t="str">
-        <v>i18n_im_39932f24fe11a6ba</v>
+        <v>Message DND</v>
+      </c>
+      <c r="E9" t="str">
+        <v>plugin/setting/Avoid.tsx</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>链接</v>
+        <v>i18n_im_7cfdd71e7e3c1cf7</v>
       </c>
       <c r="B10" t="str">
-        <v>位置</v>
+        <v>链接</v>
       </c>
       <c r="C10" t="str">
-        <v>Location</v>
+        <v>更新设置失败</v>
       </c>
       <c r="D10" t="str">
-        <v>plugin/message/moreboard/location.ts</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10" t="str">
-        <v>i18n_im_1fb4d574da92f1c1</v>
+        <v>Update of settings failed</v>
+      </c>
+      <c r="E10" t="str">
+        <v>plugin/setting/Avoid.tsx</v>
+      </c>
+      <c r="F10">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>链接</v>
+        <v>i18n_im_7cfdd71e7e3c1cf7</v>
       </c>
       <c r="B11" t="str">
-        <v>照片</v>
+        <v>链接</v>
       </c>
       <c r="C11" t="str">
-        <v>Photo</v>
+        <v>更新设置失败</v>
       </c>
       <c r="D11" t="str">
-        <v>plugin/message/moreboard/photo.ts</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11" t="str">
-        <v>i18n_im_7b50017ae47eca32</v>
+        <v>Update of settings failed</v>
+      </c>
+      <c r="E11" t="str">
+        <v>plugin/setting/Avoid.tsx</v>
+      </c>
+      <c r="F11">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>链接</v>
+        <v>i18n_im_39932f24fe11a6ba</v>
       </c>
       <c r="B12" t="str">
-        <v>视频</v>
+        <v>链接</v>
       </c>
       <c r="C12" t="str">
-        <v>Video</v>
+        <v>文件</v>
       </c>
       <c r="D12" t="str">
-        <v>plugin/message/moreboard/photo.ts</v>
-      </c>
-      <c r="E12">
-        <v>31</v>
-      </c>
-      <c r="F12" t="str">
-        <v>i18n_im_c20f7618d330a854</v>
+        <v>Files</v>
+      </c>
+      <c r="E12" t="str">
+        <v>plugin/message/moreboard/file.ts</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>链接</v>
+        <v>i18n_im_39932f24fe11a6ba</v>
       </c>
       <c r="B13" t="str">
-        <v>拍摄</v>
+        <v>链接</v>
       </c>
       <c r="C13" t="str">
-        <v>Camera shoot</v>
+        <v>文件</v>
       </c>
       <c r="D13" t="str">
-        <v>plugin/message/moreboard/photo.ts</v>
-      </c>
-      <c r="E13">
-        <v>44</v>
-      </c>
-      <c r="F13" t="str">
-        <v>i18n_im_b5110dcd9936597f</v>
+        <v>Files</v>
+      </c>
+      <c r="E13" t="str">
+        <v>plugin/message/moreboard/file.ts</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>链接</v>
+        <v>i18n_im_54e20fcfb5abb867</v>
       </c>
       <c r="B14" t="str">
-        <v>查看全体群成员({{MemberExpression1}})</v>
+        <v>链接</v>
       </c>
       <c r="C14" t="str">
-        <v>View all group members ({{MemberExpression1}})</v>
+        <v>[文件]</v>
       </c>
       <c r="D14" t="str">
-        <v>plugin/setting/AllMembers.tsx</v>
-      </c>
-      <c r="E14">
-        <v>23</v>
-      </c>
-      <c r="F14" t="str">
-        <v>i18n_im_0008801ffbb89e4f</v>
+        <v>[file]</v>
+      </c>
+      <c r="E14" t="str">
+        <v>plugin/message/abstract/FileAbstract.ts</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>链接</v>
+        <v>i18n_im_54e20fcfb5abb867</v>
       </c>
       <c r="B15" t="str">
-        <v>允许添加成员</v>
+        <v>链接</v>
       </c>
       <c r="C15" t="str">
-        <v>Allow members to be added</v>
+        <v>[文件]</v>
       </c>
       <c r="D15" t="str">
-        <v>plugin/setting/AllowInvite.tsx</v>
-      </c>
-      <c r="E15">
-        <v>44</v>
-      </c>
-      <c r="F15" t="str">
-        <v>i18n_im_9d2bfa502dca48bd</v>
+        <v>[file]</v>
+      </c>
+      <c r="E15" t="str">
+        <v>plugin/message/abstract/FileAbstract.ts</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>链接</v>
+        <v>i18n_im_e27a38d64646b5fa</v>
       </c>
       <c r="B16" t="str">
-        <v>更新设置失败</v>
+        <v>链接</v>
       </c>
       <c r="C16" t="str">
-        <v>Update of settings failed</v>
+        <v>当前版本暂不支持该消息</v>
       </c>
       <c r="D16" t="str">
-        <v>plugin/setting/AllowInvite.tsx</v>
-      </c>
-      <c r="E16">
-        <v>62</v>
-      </c>
-      <c r="F16" t="str">
-        <v>i18n_im_7cfdd71e7e3c1cf7</v>
+        <v>This message is not supported in the current version</v>
+      </c>
+      <c r="E16" t="str">
+        <v>plugin/message/display/GeneralBubble.tsx</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>链接</v>
+        <v>i18n_im_e27a38d64646b5fa</v>
       </c>
       <c r="B17" t="str">
-        <v>消息免打扰</v>
+        <v>链接</v>
       </c>
       <c r="C17" t="str">
-        <v>Message DND</v>
+        <v>当前版本暂不支持该消息</v>
       </c>
       <c r="D17" t="str">
-        <v>plugin/setting/Avoid.tsx</v>
-      </c>
-      <c r="E17">
-        <v>38</v>
-      </c>
-      <c r="F17" t="str">
-        <v>i18n_im_5c3604c325ee4b6e</v>
+        <v>This message is not supported in the current version</v>
+      </c>
+      <c r="E17" t="str">
+        <v>plugin/message/display/GeneralBubble.tsx</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>链接</v>
+        <v>i18n_im_a1143a6d33b79d62</v>
       </c>
       <c r="B18" t="str">
-        <v>更新设置失败</v>
+        <v>链接</v>
       </c>
       <c r="C18" t="str">
-        <v>Update of settings failed</v>
+        <v>群主已禁止添加成员</v>
       </c>
       <c r="D18" t="str">
-        <v>plugin/setting/Avoid.tsx</v>
-      </c>
-      <c r="E18">
-        <v>59</v>
-      </c>
-      <c r="F18" t="str">
-        <v>i18n_im_7cfdd71e7e3c1cf7</v>
+        <v>Adding members has been blocked by the group owner</v>
+      </c>
+      <c r="E18" t="str">
+        <v>plugin/setting/GeneralUpdate.ts</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>链接</v>
+        <v>i18n_im_a1143a6d33b79d62</v>
       </c>
       <c r="B19" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C19" t="str">
         <v>群主已禁止添加成员</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <v>Adding members has been blocked by the group owner</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <v>plugin/setting/GeneralUpdate.ts</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>13</v>
-      </c>
-      <c r="F19" t="str">
-        <v>i18n_im_a1143a6d33b79d62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>链接</v>
+        <v>i18n_im_e76fafa24e583a23</v>
       </c>
       <c r="B20" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C20" t="str">
         <v>创建群聊失败</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <v>Failed to create group chat</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <v>plugin/setting/GeneralUpdate.ts</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>24</v>
-      </c>
-      <c r="F20" t="str">
-        <v>i18n_im_e76fafa24e583a23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>链接</v>
+        <v>i18n_im_e76fafa24e583a23</v>
       </c>
       <c r="B21" t="str">
-        <v>删除群成员失败</v>
+        <v>链接</v>
       </c>
       <c r="C21" t="str">
-        <v>Failed to delete group member</v>
+        <v>创建群聊失败</v>
       </c>
       <c r="D21" t="str">
+        <v>Failed to create group chat</v>
+      </c>
+      <c r="E21" t="str">
         <v>plugin/setting/GeneralUpdate.ts</v>
       </c>
-      <c r="E21">
-        <v>37</v>
-      </c>
-      <c r="F21" t="str">
-        <v>i18n_im_662871c77511fdf0</v>
+      <c r="F21">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>链接</v>
+        <v>i18n_im_662871c77511fdf0</v>
       </c>
       <c r="B22" t="str">
-        <v>群公告</v>
+        <v>链接</v>
       </c>
       <c r="C22" t="str">
-        <v>Grupo Notice</v>
+        <v>删除群成员失败</v>
       </c>
       <c r="D22" t="str">
-        <v>plugin/setting/GroupAnnouncement.tsx</v>
-      </c>
-      <c r="E22">
-        <v>53</v>
-      </c>
-      <c r="F22" t="str">
-        <v>i18n_im_99728d0e0224c355</v>
+        <v>Failed to delete group member</v>
+      </c>
+      <c r="E22" t="str">
+        <v>plugin/setting/GeneralUpdate.ts</v>
+      </c>
+      <c r="F22">
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>链接</v>
+        <v>i18n_im_662871c77511fdf0</v>
       </c>
       <c r="B23" t="str">
-        <v>未设置</v>
+        <v>链接</v>
       </c>
       <c r="C23" t="str">
-        <v>Not set</v>
+        <v>删除群成员失败</v>
       </c>
       <c r="D23" t="str">
-        <v>plugin/setting/GroupAnnouncement.tsx</v>
-      </c>
-      <c r="E23">
-        <v>67</v>
-      </c>
-      <c r="F23" t="str">
-        <v>i18n_im_2f5f1d6fbfb061ed</v>
+        <v>Failed to delete group member</v>
+      </c>
+      <c r="E23" t="str">
+        <v>plugin/setting/GeneralUpdate.ts</v>
+      </c>
+      <c r="F23">
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>链接</v>
+        <v>i18n_im_99728d0e0224c355</v>
       </c>
       <c r="B24" t="str">
-        <v>只有群主</v>
+        <v>链接</v>
       </c>
       <c r="C24" t="str">
-        <v>Only group masters</v>
+        <v>群公告</v>
       </c>
       <c r="D24" t="str">
+        <v>Grupo Notice</v>
+      </c>
+      <c r="E24" t="str">
         <v>plugin/setting/GroupAnnouncement.tsx</v>
       </c>
-      <c r="E24">
-        <v>118</v>
-      </c>
-      <c r="F24" t="str">
-        <v>i18n_im_d32d848c4c3ee449</v>
+      <c r="F24">
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>链接</v>
+        <v>i18n_im_99728d0e0224c355</v>
       </c>
       <c r="B25" t="str">
-        <v>才能修改群公告</v>
+        <v>链接</v>
       </c>
       <c r="C25" t="str">
-        <v>In order to modify the group announcement</v>
+        <v>群公告</v>
       </c>
       <c r="D25" t="str">
+        <v>Grupo Notice</v>
+      </c>
+      <c r="E25" t="str">
         <v>plugin/setting/GroupAnnouncement.tsx</v>
       </c>
-      <c r="E25">
-        <v>118</v>
-      </c>
-      <c r="F25" t="str">
-        <v>i18n_im_4cf1cd56f94d3653</v>
+      <c r="F25">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>链接</v>
+        <v>i18n_im_2f5f1d6fbfb061ed</v>
       </c>
       <c r="B26" t="str">
-        <v>我知道了</v>
+        <v>链接</v>
       </c>
       <c r="C26" t="str">
-        <v>OK</v>
+        <v>未设置</v>
       </c>
       <c r="D26" t="str">
+        <v>Not set</v>
+      </c>
+      <c r="E26" t="str">
         <v>plugin/setting/GroupAnnouncement.tsx</v>
       </c>
-      <c r="E26">
-        <v>120</v>
-      </c>
-      <c r="F26" t="str">
-        <v>i18n_im_348f1cf1243e74bc</v>
+      <c r="F26">
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>链接</v>
+        <v>i18n_im_2f5f1d6fbfb061ed</v>
       </c>
       <c r="B27" t="str">
-        <v>群头像</v>
+        <v>链接</v>
       </c>
       <c r="C27" t="str">
-        <v>Group avatar</v>
+        <v>未设置</v>
       </c>
       <c r="D27" t="str">
-        <v>plugin/setting/GroupAvatar.tsx</v>
-      </c>
-      <c r="E27">
-        <v>28</v>
-      </c>
-      <c r="F27" t="str">
-        <v>i18n_im_9352fee677cc63fc</v>
+        <v>Not set</v>
+      </c>
+      <c r="E27" t="str">
+        <v>plugin/setting/GroupAnnouncement.tsx</v>
+      </c>
+      <c r="F27">
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>链接</v>
+        <v>i18n_im_d32d848c4c3ee449</v>
       </c>
       <c r="B28" t="str">
-        <v>拍照</v>
+        <v>链接</v>
       </c>
       <c r="C28" t="str">
-        <v>Taking photo</v>
+        <v>只有群主</v>
       </c>
       <c r="D28" t="str">
-        <v>plugin/setting/GroupAvatar.tsx</v>
-      </c>
-      <c r="E28">
-        <v>42</v>
-      </c>
-      <c r="F28" t="str">
-        <v>i18n_im_6e3a10ade7c74955</v>
+        <v>Only group masters</v>
+      </c>
+      <c r="E28" t="str">
+        <v>plugin/setting/GroupAnnouncement.tsx</v>
+      </c>
+      <c r="F28">
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>链接</v>
+        <v>i18n_im_4cf1cd56f94d3653</v>
       </c>
       <c r="B29" t="str">
-        <v>从相册选择</v>
+        <v>链接</v>
       </c>
       <c r="C29" t="str">
-        <v>Chinese</v>
+        <v>才能修改群公告</v>
       </c>
       <c r="D29" t="str">
-        <v>plugin/setting/GroupAvatar.tsx</v>
-      </c>
-      <c r="E29">
-        <v>43</v>
-      </c>
-      <c r="F29" t="str">
-        <v>i18n_im_2f2b556c7099806b</v>
+        <v>In order to modify the group announcement</v>
+      </c>
+      <c r="E29" t="str">
+        <v>plugin/setting/GroupAnnouncement.tsx</v>
+      </c>
+      <c r="F29">
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>链接</v>
+        <v>i18n_im_d32d848c4c3ee449</v>
       </c>
       <c r="B30" t="str">
-        <v>取消</v>
+        <v>链接</v>
       </c>
       <c r="C30" t="str">
-        <v>Cancel</v>
+        <v>只有群主</v>
       </c>
       <c r="D30" t="str">
-        <v>plugin/setting/GroupAvatar.tsx</v>
-      </c>
-      <c r="E30">
-        <v>44</v>
-      </c>
-      <c r="F30" t="str">
-        <v>i18n_im_2cd0f3be8738a86c</v>
+        <v>Only group masters</v>
+      </c>
+      <c r="E30" t="str">
+        <v>plugin/setting/GroupAnnouncement.tsx</v>
+      </c>
+      <c r="F30">
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>链接</v>
+        <v>i18n_im_4cf1cd56f94d3653</v>
       </c>
       <c r="B31" t="str">
-        <v>设置头像失败</v>
+        <v>链接</v>
       </c>
       <c r="C31" t="str">
-        <v>Failed to set avatar</v>
+        <v>才能修改群公告</v>
       </c>
       <c r="D31" t="str">
-        <v>plugin/setting/GroupAvatar.tsx</v>
-      </c>
-      <c r="E31">
-        <v>72</v>
-      </c>
-      <c r="F31" t="str">
-        <v>i18n_im_1b9b4ea3cd87e868</v>
+        <v>In order to modify the group announcement</v>
+      </c>
+      <c r="E31" t="str">
+        <v>plugin/setting/GroupAnnouncement.tsx</v>
+      </c>
+      <c r="F31">
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>链接</v>
+        <v>i18n_im_348f1cf1243e74bc</v>
       </c>
       <c r="B32" t="str">
-        <v>资料</v>
+        <v>链接</v>
       </c>
       <c r="C32" t="str">
-        <v>Info</v>
+        <v>我知道了</v>
       </c>
       <c r="D32" t="str">
-        <v>plugin/setting/GroupData.tsx</v>
-      </c>
-      <c r="E32">
-        <v>45</v>
-      </c>
-      <c r="F32" t="str">
-        <v>i18n_im_cba1ec75f4ca2162</v>
+        <v>OK</v>
+      </c>
+      <c r="E32" t="str">
+        <v>plugin/setting/GroupAnnouncement.tsx</v>
+      </c>
+      <c r="F32">
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>链接</v>
+        <v>i18n_im_348f1cf1243e74bc</v>
       </c>
       <c r="B33" t="str">
-        <v>资料失败</v>
+        <v>链接</v>
       </c>
       <c r="C33" t="str">
-        <v>Profile failed</v>
+        <v>我知道了</v>
       </c>
       <c r="D33" t="str">
-        <v>plugin/setting/GroupData.tsx</v>
-      </c>
-      <c r="E33">
-        <v>57</v>
-      </c>
-      <c r="F33" t="str">
-        <v>i18n_im_af89afed5c63c9d8</v>
+        <v>OK</v>
+      </c>
+      <c r="E33" t="str">
+        <v>plugin/setting/GroupAnnouncement.tsx</v>
+      </c>
+      <c r="F33">
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>链接</v>
+        <v>i18n_im_9352fee677cc63fc</v>
       </c>
       <c r="B34" t="str">
-        <v>显示群成员昵称</v>
+        <v>链接</v>
       </c>
       <c r="C34" t="str">
-        <v>Show group member nicknames</v>
+        <v>群头像</v>
       </c>
       <c r="D34" t="str">
-        <v>plugin/setting/GroupMemberName.tsx</v>
-      </c>
-      <c r="E34">
-        <v>42</v>
-      </c>
-      <c r="F34" t="str">
-        <v>i18n_im_c3a53d7746dea3e6</v>
+        <v>Group avatar</v>
+      </c>
+      <c r="E34" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F34">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>链接</v>
+        <v>i18n_im_9352fee677cc63fc</v>
       </c>
       <c r="B35" t="str">
-        <v>更新设置失败</v>
+        <v>链接</v>
       </c>
       <c r="C35" t="str">
-        <v>Update of settings failed</v>
+        <v>群头像</v>
       </c>
       <c r="D35" t="str">
-        <v>plugin/setting/GroupMemberName.tsx</v>
-      </c>
-      <c r="E35">
-        <v>60</v>
-      </c>
-      <c r="F35" t="str">
-        <v>i18n_im_7cfdd71e7e3c1cf7</v>
+        <v>Group avatar</v>
+      </c>
+      <c r="E35" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F35">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>链接</v>
+        <v>i18n_im_6e3a10ade7c74955</v>
       </c>
       <c r="B36" t="str">
-        <v>群聊名称</v>
+        <v>链接</v>
       </c>
       <c r="C36" t="str">
-        <v>Group Chat Name</v>
+        <v>拍照</v>
       </c>
       <c r="D36" t="str">
-        <v>plugin/setting/GroupName.tsx</v>
-      </c>
-      <c r="E36">
-        <v>56</v>
-      </c>
-      <c r="F36" t="str">
-        <v>i18n_im_12633e741c9ab2ed</v>
+        <v>Taking photo</v>
+      </c>
+      <c r="E36" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F36">
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>链接</v>
+        <v>i18n_im_6e3a10ade7c74955</v>
       </c>
       <c r="B37" t="str">
-        <v>群聊名称不能为空</v>
+        <v>链接</v>
       </c>
       <c r="C37" t="str">
-        <v>Group chat name cannot be empty</v>
+        <v>拍照</v>
       </c>
       <c r="D37" t="str">
-        <v>plugin/setting/GroupName.tsx</v>
-      </c>
-      <c r="E37">
-        <v>72</v>
-      </c>
-      <c r="F37" t="str">
-        <v>i18n_im_80554a49f3f890eb</v>
+        <v>Taking photo</v>
+      </c>
+      <c r="E37" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F37">
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>链接</v>
+        <v>i18n_im_2f2b556c7099806b</v>
       </c>
       <c r="B38" t="str">
-        <v>更改群聊名称失败</v>
+        <v>链接</v>
       </c>
       <c r="C38" t="str">
-        <v>Failed to change group chat name</v>
+        <v>从相册选择</v>
       </c>
       <c r="D38" t="str">
-        <v>plugin/setting/GroupName.tsx</v>
-      </c>
-      <c r="E38">
-        <v>81</v>
-      </c>
-      <c r="F38" t="str">
-        <v>i18n_im_7ddfd2b3c5fae13b</v>
+        <v>Chinese</v>
+      </c>
+      <c r="E38" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F38">
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>链接</v>
+        <v>i18n_im_2f2b556c7099806b</v>
       </c>
       <c r="B39" t="str">
-        <v>解散群聊</v>
+        <v>链接</v>
       </c>
       <c r="C39" t="str">
-        <v>Disband group chat</v>
+        <v>从相册选择</v>
       </c>
       <c r="D39" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E39">
-        <v>17</v>
-      </c>
-      <c r="F39" t="str">
-        <v>i18n_im_cb2756b09c5ab768</v>
+        <v>Chinese</v>
+      </c>
+      <c r="E39" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F39">
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>链接</v>
+        <v>i18n_im_2cd0f3be8738a86c</v>
       </c>
       <c r="B40" t="str">
-        <v>退出群聊</v>
+        <v>链接</v>
       </c>
       <c r="C40" t="str">
-        <v>Leave the group</v>
+        <v>取消</v>
       </c>
       <c r="D40" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E40">
-        <v>17</v>
-      </c>
-      <c r="F40" t="str">
-        <v>i18n_im_6742dce649e2faff</v>
+        <v>Cancel</v>
+      </c>
+      <c r="E40" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F40">
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>链接</v>
+        <v>i18n_im_2cd0f3be8738a86c</v>
       </c>
       <c r="B41" t="str">
-        <v>提示</v>
+        <v>链接</v>
       </c>
       <c r="C41" t="str">
-        <v>Tip</v>
+        <v>取消</v>
       </c>
       <c r="D41" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E41">
-        <v>29</v>
-      </c>
-      <c r="F41" t="str">
-        <v>i18n_im_f56c6c82203b33f6</v>
+        <v>Cancel</v>
+      </c>
+      <c r="E41" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F41">
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>链接</v>
+        <v>i18n_im_1b9b4ea3cd87e868</v>
       </c>
       <c r="B42" t="str">
-        <v>是否解散群聊?</v>
+        <v>链接</v>
       </c>
       <c r="C42" t="str">
-        <v>Disband group chat?</v>
+        <v>设置头像失败</v>
       </c>
       <c r="D42" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E42">
-        <v>29</v>
-      </c>
-      <c r="F42" t="str">
-        <v>i18n_im_70638242f4a126e1</v>
+        <v>Failed to set avatar</v>
+      </c>
+      <c r="E42" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F42">
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>链接</v>
+        <v>i18n_im_1b9b4ea3cd87e868</v>
       </c>
       <c r="B43" t="str">
-        <v>取消</v>
+        <v>链接</v>
       </c>
       <c r="C43" t="str">
-        <v>Cancel</v>
+        <v>设置头像失败</v>
       </c>
       <c r="D43" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E43">
-        <v>31</v>
-      </c>
-      <c r="F43" t="str">
-        <v>i18n_im_2cd0f3be8738a86c</v>
+        <v>Failed to set avatar</v>
+      </c>
+      <c r="E43" t="str">
+        <v>plugin/setting/GroupAvatar.tsx</v>
+      </c>
+      <c r="F43">
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>链接</v>
+        <v>i18n_im_cba1ec75f4ca2162</v>
       </c>
       <c r="B44" t="str">
-        <v>确定</v>
+        <v>链接</v>
       </c>
       <c r="C44" t="str">
-        <v>OK</v>
+        <v>资料</v>
       </c>
       <c r="D44" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E44">
-        <v>35</v>
-      </c>
-      <c r="F44" t="str">
-        <v>i18n_im_fac2a67ad87807c4</v>
+        <v>Info</v>
+      </c>
+      <c r="E44" t="str">
+        <v>plugin/setting/GroupData.tsx</v>
+      </c>
+      <c r="F44">
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>链接</v>
+        <v>i18n_im_cba1ec75f4ca2162</v>
       </c>
       <c r="B45" t="str">
-        <v>提示</v>
+        <v>链接</v>
       </c>
       <c r="C45" t="str">
-        <v>Tip</v>
+        <v>资料</v>
       </c>
       <c r="D45" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E45">
-        <v>42</v>
-      </c>
-      <c r="F45" t="str">
-        <v>i18n_im_f56c6c82203b33f6</v>
+        <v>Info</v>
+      </c>
+      <c r="E45" t="str">
+        <v>plugin/setting/GroupData.tsx</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>链接</v>
+        <v>i18n_im_af89afed5c63c9d8</v>
       </c>
       <c r="B46" t="str">
-        <v>删除并退出后，将不再接收此群聊信息！</v>
+        <v>链接</v>
       </c>
       <c r="C46" t="str">
-        <v>After deleting and exiting, you will no longer receive this group chat message!</v>
+        <v>资料失败</v>
       </c>
       <c r="D46" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E46">
-        <v>42</v>
-      </c>
-      <c r="F46" t="str">
-        <v>i18n_im_f5b195490e60ac89</v>
+        <v>Profile failed</v>
+      </c>
+      <c r="E46" t="str">
+        <v>plugin/setting/GroupData.tsx</v>
+      </c>
+      <c r="F46">
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>链接</v>
+        <v>i18n_im_af89afed5c63c9d8</v>
       </c>
       <c r="B47" t="str">
-        <v>取消</v>
+        <v>链接</v>
       </c>
       <c r="C47" t="str">
-        <v>Cancel</v>
+        <v>资料失败</v>
       </c>
       <c r="D47" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E47">
-        <v>44</v>
-      </c>
-      <c r="F47" t="str">
-        <v>i18n_im_2cd0f3be8738a86c</v>
+        <v>Profile failed</v>
+      </c>
+      <c r="E47" t="str">
+        <v>plugin/setting/GroupData.tsx</v>
+      </c>
+      <c r="F47">
+        <v>57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>链接</v>
+        <v>i18n_im_c3a53d7746dea3e6</v>
       </c>
       <c r="B48" t="str">
-        <v>确定</v>
+        <v>链接</v>
       </c>
       <c r="C48" t="str">
-        <v>OK</v>
+        <v>显示群成员昵称</v>
       </c>
       <c r="D48" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E48">
-        <v>48</v>
-      </c>
-      <c r="F48" t="str">
-        <v>i18n_im_fac2a67ad87807c4</v>
+        <v>Show group member nicknames</v>
+      </c>
+      <c r="E48" t="str">
+        <v>plugin/setting/GroupMemberName.tsx</v>
+      </c>
+      <c r="F48">
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>链接</v>
+        <v>i18n_im_c3a53d7746dea3e6</v>
       </c>
       <c r="B49" t="str">
-        <v>失败</v>
+        <v>链接</v>
       </c>
       <c r="C49" t="str">
-        <v>Kalah</v>
+        <v>显示群成员昵称</v>
       </c>
       <c r="D49" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E49">
-        <v>56</v>
-      </c>
-      <c r="F49" t="str">
-        <v>i18n_im_28384d7afd2e4fa6</v>
+        <v>Show group member nicknames</v>
+      </c>
+      <c r="E49" t="str">
+        <v>plugin/setting/GroupMemberName.tsx</v>
+      </c>
+      <c r="F49">
+        <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>链接</v>
+        <v>i18n_im_7cfdd71e7e3c1cf7</v>
       </c>
       <c r="B50" t="str">
-        <v>成功</v>
+        <v>链接</v>
       </c>
       <c r="C50" t="str">
-        <v>Berhasil</v>
+        <v>更新设置失败</v>
       </c>
       <c r="D50" t="str">
-        <v>plugin/setting/LeaveGroup.tsx</v>
-      </c>
-      <c r="E50">
-        <v>79</v>
-      </c>
-      <c r="F50" t="str">
-        <v>i18n_im_053461ce86d26572</v>
+        <v>Update of settings failed</v>
+      </c>
+      <c r="E50" t="str">
+        <v>plugin/setting/GroupMemberName.tsx</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>链接</v>
+        <v>i18n_im_7cfdd71e7e3c1cf7</v>
       </c>
       <c r="B51" t="str">
-        <v>取消</v>
+        <v>链接</v>
       </c>
       <c r="C51" t="str">
-        <v>Cancel</v>
+        <v>更新设置失败</v>
       </c>
       <c r="D51" t="str">
-        <v>plugin/setting/Prompt.tsx</v>
-      </c>
-      <c r="E51">
-        <v>74</v>
-      </c>
-      <c r="F51" t="str">
-        <v>i18n_im_2cd0f3be8738a86c</v>
+        <v>Update of settings failed</v>
+      </c>
+      <c r="E51" t="str">
+        <v>plugin/setting/GroupMemberName.tsx</v>
+      </c>
+      <c r="F51">
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>链接</v>
+        <v>i18n_im_12633e741c9ab2ed</v>
       </c>
       <c r="B52" t="str">
-        <v>确定</v>
+        <v>链接</v>
       </c>
       <c r="C52" t="str">
-        <v>OK</v>
+        <v>群聊名称</v>
       </c>
       <c r="D52" t="str">
-        <v>plugin/setting/Prompt.tsx</v>
-      </c>
-      <c r="E52">
-        <v>81</v>
-      </c>
-      <c r="F52" t="str">
-        <v>i18n_im_fac2a67ad87807c4</v>
+        <v>Group Chat Name</v>
+      </c>
+      <c r="E52" t="str">
+        <v>plugin/setting/GroupName.tsx</v>
+      </c>
+      <c r="F52">
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>链接</v>
+        <v>i18n_im_12633e741c9ab2ed</v>
       </c>
       <c r="B53" t="str">
-        <v>置顶聊天</v>
+        <v>链接</v>
       </c>
       <c r="C53" t="str">
-        <v>Pinned Chat</v>
+        <v>群聊名称</v>
       </c>
       <c r="D53" t="str">
-        <v>plugin/setting/Top.tsx</v>
-      </c>
-      <c r="E53">
-        <v>37</v>
-      </c>
-      <c r="F53" t="str">
-        <v>i18n_im_856e892a3eaf7485</v>
+        <v>Group Chat Name</v>
+      </c>
+      <c r="E53" t="str">
+        <v>plugin/setting/GroupName.tsx</v>
+      </c>
+      <c r="F53">
+        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>链接</v>
+        <v>i18n_im_80554a49f3f890eb</v>
       </c>
       <c r="B54" t="str">
-        <v>更新设置失败</v>
+        <v>链接</v>
       </c>
       <c r="C54" t="str">
-        <v>Update of settings failed</v>
+        <v>群聊名称不能为空</v>
       </c>
       <c r="D54" t="str">
-        <v>plugin/setting/Top.tsx</v>
-      </c>
-      <c r="E54">
-        <v>55</v>
-      </c>
-      <c r="F54" t="str">
-        <v>i18n_im_7cfdd71e7e3c1cf7</v>
+        <v>Group chat name cannot be empty</v>
+      </c>
+      <c r="E54" t="str">
+        <v>plugin/setting/GroupName.tsx</v>
+      </c>
+      <c r="F54">
+        <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>链接</v>
+        <v>i18n_im_80554a49f3f890eb</v>
       </c>
       <c r="B55" t="str">
-        <v>转交群主</v>
+        <v>链接</v>
       </c>
       <c r="C55" t="str">
-        <v>Transfer to group master</v>
+        <v>群聊名称不能为空</v>
       </c>
       <c r="D55" t="str">
-        <v>plugin/setting/TransferOwner.tsx</v>
-      </c>
-      <c r="E55">
-        <v>19</v>
-      </c>
-      <c r="F55" t="str">
-        <v>i18n_im_01ba77ab84b2adbb</v>
+        <v>Group chat name cannot be empty</v>
+      </c>
+      <c r="E55" t="str">
+        <v>plugin/setting/GroupName.tsx</v>
+      </c>
+      <c r="F55">
+        <v>72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>链接</v>
+        <v>i18n_im_7ddfd2b3c5fae13b</v>
       </c>
       <c r="B56" t="str">
-        <v>选择群成员</v>
+        <v>链接</v>
       </c>
       <c r="C56" t="str">
-        <v>Select group members</v>
+        <v>更改群聊名称失败</v>
       </c>
       <c r="D56" t="str">
-        <v>plugin/setting/TransferOwner.tsx</v>
-      </c>
-      <c r="E56">
-        <v>30</v>
-      </c>
-      <c r="F56" t="str">
-        <v>i18n_im_9e910da621148e4c</v>
+        <v>Failed to change group chat name</v>
+      </c>
+      <c r="E56" t="str">
+        <v>plugin/setting/GroupName.tsx</v>
+      </c>
+      <c r="F56">
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>链接</v>
+        <v>i18n_im_7ddfd2b3c5fae13b</v>
       </c>
       <c r="B57" t="str">
-        <v>转交群主给:</v>
+        <v>链接</v>
       </c>
       <c r="C57" t="str">
-        <v>Transfer the group owner to:</v>
+        <v>更改群聊名称失败</v>
       </c>
       <c r="D57" t="str">
-        <v>plugin/setting/TransferOwner.tsx</v>
-      </c>
-      <c r="E57">
-        <v>40</v>
-      </c>
-      <c r="F57" t="str">
-        <v>i18n_im_881bc916a59ad75f</v>
+        <v>Failed to change group chat name</v>
+      </c>
+      <c r="E57" t="str">
+        <v>plugin/setting/GroupName.tsx</v>
+      </c>
+      <c r="F57">
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>链接</v>
+        <v>i18n_im_a71f445d35779ede</v>
       </c>
       <c r="B58" t="str">
-        <v>取消</v>
+        <v>链接</v>
       </c>
       <c r="C58" t="str">
-        <v>Cancel</v>
+        <v>[图片]</v>
       </c>
       <c r="D58" t="str">
-        <v>plugin/setting/TransferOwner.tsx</v>
-      </c>
-      <c r="E58">
-        <v>41</v>
-      </c>
-      <c r="F58" t="str">
-        <v>i18n_im_2cd0f3be8738a86c</v>
+        <v>[picture]</v>
+      </c>
+      <c r="E58" t="str">
+        <v>plugin/message/abstract/ImageAbstract.ts</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>链接</v>
+        <v>i18n_im_a71f445d35779ede</v>
       </c>
       <c r="B59" t="str">
-        <v>确定</v>
+        <v>链接</v>
       </c>
       <c r="C59" t="str">
-        <v>OK</v>
+        <v>[图片]</v>
       </c>
       <c r="D59" t="str">
-        <v>plugin/setting/TransferOwner.tsx</v>
-      </c>
-      <c r="E59">
-        <v>42</v>
-      </c>
-      <c r="F59" t="str">
-        <v>i18n_im_fac2a67ad87807c4</v>
+        <v>[picture]</v>
+      </c>
+      <c r="E59" t="str">
+        <v>plugin/message/abstract/ImageAbstract.ts</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>链接</v>
+        <v>i18n_im_cb2756b09c5ab768</v>
       </c>
       <c r="B60" t="str">
-        <v>转交成功</v>
+        <v>链接</v>
       </c>
       <c r="C60" t="str">
-        <v>Transfer successful</v>
+        <v>解散群聊</v>
       </c>
       <c r="D60" t="str">
-        <v>plugin/setting/TransferOwner.tsx</v>
-      </c>
-      <c r="E60">
-        <v>53</v>
-      </c>
-      <c r="F60" t="str">
-        <v>i18n_im_5e6d872cabdc583f</v>
+        <v>Disband group chat</v>
+      </c>
+      <c r="E60" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F60">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>链接</v>
+        <v>i18n_im_6742dce649e2faff</v>
       </c>
       <c r="B61" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C61" t="str">
+        <v>退出群聊</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Leave the group</v>
+      </c>
+      <c r="E61" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>i18n_im_cb2756b09c5ab768</v>
+      </c>
+      <c r="B62" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C62" t="str">
+        <v>解散群聊</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Disband group chat</v>
+      </c>
+      <c r="E62" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>i18n_im_6742dce649e2faff</v>
+      </c>
+      <c r="B63" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C63" t="str">
+        <v>退出群聊</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Leave the group</v>
+      </c>
+      <c r="E63" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>i18n_im_f56c6c82203b33f6</v>
+      </c>
+      <c r="B64" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C64" t="str">
+        <v>提示</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Tip</v>
+      </c>
+      <c r="E64" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F64">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>i18n_im_70638242f4a126e1</v>
+      </c>
+      <c r="B65" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C65" t="str">
+        <v>是否解散群聊?</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Disband group chat?</v>
+      </c>
+      <c r="E65" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F65">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>i18n_im_f56c6c82203b33f6</v>
+      </c>
+      <c r="B66" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C66" t="str">
+        <v>提示</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Tip</v>
+      </c>
+      <c r="E66" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>i18n_im_70638242f4a126e1</v>
+      </c>
+      <c r="B67" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C67" t="str">
+        <v>是否解散群聊?</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Disband group chat?</v>
+      </c>
+      <c r="E67" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B68" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C68" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E68" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F68">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B69" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C69" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E69" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F69">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B70" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C70" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D70" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E70" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B71" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C71" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D71" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E71" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F71">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>i18n_im_f56c6c82203b33f6</v>
+      </c>
+      <c r="B72" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C72" t="str">
+        <v>提示</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Tip</v>
+      </c>
+      <c r="E72" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F72">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>i18n_im_f5b195490e60ac89</v>
+      </c>
+      <c r="B73" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C73" t="str">
+        <v>删除并退出后，将不再接收此群聊信息！</v>
+      </c>
+      <c r="D73" t="str">
+        <v>After deleting and exiting, you will no longer receive this group chat message!</v>
+      </c>
+      <c r="E73" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>i18n_im_f56c6c82203b33f6</v>
+      </c>
+      <c r="B74" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C74" t="str">
+        <v>提示</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Tip</v>
+      </c>
+      <c r="E74" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F74">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>i18n_im_f5b195490e60ac89</v>
+      </c>
+      <c r="B75" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C75" t="str">
+        <v>删除并退出后，将不再接收此群聊信息！</v>
+      </c>
+      <c r="D75" t="str">
+        <v>After deleting and exiting, you will no longer receive this group chat message!</v>
+      </c>
+      <c r="E75" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B76" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C76" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E76" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F76">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B77" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C77" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E77" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F77">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B78" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C78" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D78" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E78" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F78">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B79" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C79" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D79" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E79" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F79">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>i18n_im_28384d7afd2e4fa6</v>
+      </c>
+      <c r="B80" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C80" t="str">
+        <v>失败</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Kalah</v>
+      </c>
+      <c r="E80" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F80">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>i18n_im_28384d7afd2e4fa6</v>
+      </c>
+      <c r="B81" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C81" t="str">
+        <v>失败</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Kalah</v>
+      </c>
+      <c r="E81" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F81">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>i18n_im_053461ce86d26572</v>
+      </c>
+      <c r="B82" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C82" t="str">
+        <v>成功</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Berhasil</v>
+      </c>
+      <c r="E82" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F82">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>i18n_im_053461ce86d26572</v>
+      </c>
+      <c r="B83" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C83" t="str">
+        <v>成功</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Berhasil</v>
+      </c>
+      <c r="E83" t="str">
+        <v>plugin/setting/LeaveGroup.tsx</v>
+      </c>
+      <c r="F83">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>i18n_im_1fb4d574da92f1c1</v>
+      </c>
+      <c r="B84" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C84" t="str">
+        <v>位置</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Location</v>
+      </c>
+      <c r="E84" t="str">
+        <v>plugin/message/moreboard/location.ts</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>i18n_im_1fb4d574da92f1c1</v>
+      </c>
+      <c r="B85" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C85" t="str">
+        <v>位置</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Location</v>
+      </c>
+      <c r="E85" t="str">
+        <v>plugin/message/moreboard/location.ts</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>i18n_im_19f3c787e8e28c53</v>
+      </c>
+      <c r="B86" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C86" t="str">
+        <v>[我的位置]</v>
+      </c>
+      <c r="D86" t="str">
+        <v>My location</v>
+      </c>
+      <c r="E86" t="str">
+        <v>plugin/message/abstract/LocationAbstract.ts</v>
+      </c>
+      <c r="F86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>i18n_im_19f3c787e8e28c53</v>
+      </c>
+      <c r="B87" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C87" t="str">
+        <v>[我的位置]</v>
+      </c>
+      <c r="D87" t="str">
+        <v>My location</v>
+      </c>
+      <c r="E87" t="str">
+        <v>plugin/message/abstract/LocationAbstract.ts</v>
+      </c>
+      <c r="F87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>i18n_im_fee7e8072ac6fff3</v>
+      </c>
+      <c r="B88" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C88" t="str">
+        <v>的位置]</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Location of "%s"</v>
+      </c>
+      <c r="E88" t="str">
+        <v>plugin/message/abstract/LocationAbstract.ts</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>i18n_im_fee7e8072ac6fff3</v>
+      </c>
+      <c r="B89" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C89" t="str">
+        <v>的位置]</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Location of "%s"</v>
+      </c>
+      <c r="E89" t="str">
+        <v>plugin/message/abstract/LocationAbstract.ts</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>i18n_im_7b50017ae47eca32</v>
+      </c>
+      <c r="B90" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C90" t="str">
+        <v>照片</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Photo</v>
+      </c>
+      <c r="E90" t="str">
+        <v>plugin/message/moreboard/photo.ts</v>
+      </c>
+      <c r="F90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>i18n_im_7b50017ae47eca32</v>
+      </c>
+      <c r="B91" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C91" t="str">
+        <v>照片</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Photo</v>
+      </c>
+      <c r="E91" t="str">
+        <v>plugin/message/moreboard/photo.ts</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>i18n_im_c20f7618d330a854</v>
+      </c>
+      <c r="B92" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C92" t="str">
+        <v>视频</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Video</v>
+      </c>
+      <c r="E92" t="str">
+        <v>plugin/message/moreboard/photo.ts</v>
+      </c>
+      <c r="F92">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>i18n_im_c20f7618d330a854</v>
+      </c>
+      <c r="B93" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C93" t="str">
+        <v>视频</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Video</v>
+      </c>
+      <c r="E93" t="str">
+        <v>plugin/message/moreboard/photo.ts</v>
+      </c>
+      <c r="F93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>i18n_im_b5110dcd9936597f</v>
+      </c>
+      <c r="B94" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C94" t="str">
+        <v>拍摄</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Camera shoot</v>
+      </c>
+      <c r="E94" t="str">
+        <v>plugin/message/moreboard/photo.ts</v>
+      </c>
+      <c r="F94">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>i18n_im_b5110dcd9936597f</v>
+      </c>
+      <c r="B95" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C95" t="str">
+        <v>拍摄</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Camera shoot</v>
+      </c>
+      <c r="E95" t="str">
+        <v>plugin/message/moreboard/photo.ts</v>
+      </c>
+      <c r="F95">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B96" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C96" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E96" t="str">
+        <v>plugin/setting/Prompt.tsx</v>
+      </c>
+      <c r="F96">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B97" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C97" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E97" t="str">
+        <v>plugin/setting/Prompt.tsx</v>
+      </c>
+      <c r="F97">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B98" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C98" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D98" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E98" t="str">
+        <v>plugin/setting/Prompt.tsx</v>
+      </c>
+      <c r="F98">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B99" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C99" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D99" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E99" t="str">
+        <v>plugin/setting/Prompt.tsx</v>
+      </c>
+      <c r="F99">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>i18n_im_856e892a3eaf7485</v>
+      </c>
+      <c r="B100" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C100" t="str">
+        <v>置顶聊天</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Pinned Chat</v>
+      </c>
+      <c r="E100" t="str">
+        <v>plugin/setting/Top.tsx</v>
+      </c>
+      <c r="F100">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>i18n_im_856e892a3eaf7485</v>
+      </c>
+      <c r="B101" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C101" t="str">
+        <v>置顶聊天</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Pinned Chat</v>
+      </c>
+      <c r="E101" t="str">
+        <v>plugin/setting/Top.tsx</v>
+      </c>
+      <c r="F101">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>i18n_im_7cfdd71e7e3c1cf7</v>
+      </c>
+      <c r="B102" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C102" t="str">
+        <v>更新设置失败</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Update of settings failed</v>
+      </c>
+      <c r="E102" t="str">
+        <v>plugin/setting/Top.tsx</v>
+      </c>
+      <c r="F102">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>i18n_im_7cfdd71e7e3c1cf7</v>
+      </c>
+      <c r="B103" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C103" t="str">
+        <v>更新设置失败</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Update of settings failed</v>
+      </c>
+      <c r="E103" t="str">
+        <v>plugin/setting/Top.tsx</v>
+      </c>
+      <c r="F103">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>i18n_im_01ba77ab84b2adbb</v>
+      </c>
+      <c r="B104" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C104" t="str">
+        <v>转交群主</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Transfer to group master</v>
+      </c>
+      <c r="E104" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>i18n_im_01ba77ab84b2adbb</v>
+      </c>
+      <c r="B105" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C105" t="str">
+        <v>转交群主</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Transfer to group master</v>
+      </c>
+      <c r="E105" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>i18n_im_9e910da621148e4c</v>
+      </c>
+      <c r="B106" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C106" t="str">
+        <v>选择群成员</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Select group members</v>
+      </c>
+      <c r="E106" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>i18n_im_9e910da621148e4c</v>
+      </c>
+      <c r="B107" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C107" t="str">
+        <v>选择群成员</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Select group members</v>
+      </c>
+      <c r="E107" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>i18n_im_881bc916a59ad75f</v>
+      </c>
+      <c r="B108" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C108" t="str">
+        <v>转交群主给:</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Transfer the group owner to:</v>
+      </c>
+      <c r="E108" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F108">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>i18n_im_881bc916a59ad75f</v>
+      </c>
+      <c r="B109" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C109" t="str">
+        <v>转交群主给:</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Transfer the group owner to:</v>
+      </c>
+      <c r="E109" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F109">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B110" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C110" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E110" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F110">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>i18n_im_2cd0f3be8738a86c</v>
+      </c>
+      <c r="B111" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C111" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="E111" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F111">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B112" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C112" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D112" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E112" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F112">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>i18n_im_fac2a67ad87807c4</v>
+      </c>
+      <c r="B113" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C113" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D113" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E113" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F113">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>i18n_im_5e6d872cabdc583f</v>
+      </c>
+      <c r="B114" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C114" t="str">
+        <v>转交成功</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Transfer successful</v>
+      </c>
+      <c r="E114" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F114">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>i18n_im_5e6d872cabdc583f</v>
+      </c>
+      <c r="B115" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C115" t="str">
+        <v>转交成功</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Transfer successful</v>
+      </c>
+      <c r="E115" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F115">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>i18n_im_c5324c9ffe6b54b6</v>
+      </c>
+      <c r="B116" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C116" t="str">
         <v>转交失败</v>
       </c>
-      <c r="C61" t="str">
+      <c r="D116" t="str">
         <v>Transfer failed</v>
       </c>
-      <c r="D61" t="str">
+      <c r="E116" t="str">
         <v>plugin/setting/TransferOwner.tsx</v>
       </c>
-      <c r="E61">
+      <c r="F116">
         <v>56</v>
       </c>
-      <c r="F61" t="str">
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
         <v>i18n_im_c5324c9ffe6b54b6</v>
       </c>
+      <c r="B117" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C117" t="str">
+        <v>转交失败</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Transfer failed</v>
+      </c>
+      <c r="E117" t="str">
+        <v>plugin/setting/TransferOwner.tsx</v>
+      </c>
+      <c r="F117">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>i18n_im_da5d0399eba80b23</v>
+      </c>
+      <c r="B118" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C118" t="str">
+        <v>[视频]</v>
+      </c>
+      <c r="D118" t="str">
+        <v>[video]</v>
+      </c>
+      <c r="E118" t="str">
+        <v>plugin/message/abstract/VideoAbstract.ts</v>
+      </c>
+      <c r="F118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>i18n_im_da5d0399eba80b23</v>
+      </c>
+      <c r="B119" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C119" t="str">
+        <v>[视频]</v>
+      </c>
+      <c r="D119" t="str">
+        <v>[video]</v>
+      </c>
+      <c r="E119" t="str">
+        <v>plugin/message/abstract/VideoAbstract.ts</v>
+      </c>
+      <c r="F119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>i18n_im_fee630ed574669c1</v>
+      </c>
+      <c r="B120" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C120" t="str">
+        <v>[语音]</v>
+      </c>
+      <c r="D120" t="str">
+        <v>[voice]</v>
+      </c>
+      <c r="E120" t="str">
+        <v>plugin/message/abstract/VoiceAbstract.ts</v>
+      </c>
+      <c r="F120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>i18n_im_fee630ed574669c1</v>
+      </c>
+      <c r="B121" t="str">
+        <v>链接</v>
+      </c>
+      <c r="C121" t="str">
+        <v>[语音]</v>
+      </c>
+      <c r="D121" t="str">
+        <v>[voice]</v>
+      </c>
+      <c r="E121" t="str">
+        <v>plugin/message/abstract/VoiceAbstract.ts</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="L8"/>
-    <hyperlink ref="A3" r:id="rId2" location="L8"/>
-    <hyperlink ref="A4" r:id="rId3" location="L12"/>
-    <hyperlink ref="A5" r:id="rId4" location="L15"/>
-    <hyperlink ref="A6" r:id="rId5" location="L8"/>
-    <hyperlink ref="A7" r:id="rId6" location="L8"/>
-    <hyperlink ref="A8" r:id="rId7" location="L16"/>
-    <hyperlink ref="A9" r:id="rId8" location="L9"/>
-    <hyperlink ref="A10" r:id="rId9" location="L9"/>
-    <hyperlink ref="A11" r:id="rId10" location="L16"/>
-    <hyperlink ref="A12" r:id="rId11" location="L31"/>
-    <hyperlink ref="A13" r:id="rId12" location="L44"/>
-    <hyperlink ref="A14" r:id="rId13" location="L23"/>
-    <hyperlink ref="A15" r:id="rId14" location="L44"/>
-    <hyperlink ref="A16" r:id="rId15" location="L62"/>
-    <hyperlink ref="A17" r:id="rId16" location="L38"/>
-    <hyperlink ref="A18" r:id="rId17" location="L59"/>
-    <hyperlink ref="A19" r:id="rId18" location="L13"/>
-    <hyperlink ref="A20" r:id="rId19" location="L24"/>
-    <hyperlink ref="A21" r:id="rId20" location="L37"/>
-    <hyperlink ref="A22" r:id="rId21" location="L53"/>
-    <hyperlink ref="A23" r:id="rId22" location="L67"/>
-    <hyperlink ref="A24" r:id="rId23" location="L118"/>
-    <hyperlink ref="A25" r:id="rId24" location="L118"/>
-    <hyperlink ref="A26" r:id="rId25" location="L120"/>
-    <hyperlink ref="A27" r:id="rId26" location="L28"/>
-    <hyperlink ref="A28" r:id="rId27" location="L42"/>
-    <hyperlink ref="A29" r:id="rId28" location="L43"/>
-    <hyperlink ref="A30" r:id="rId29" location="L44"/>
-    <hyperlink ref="A31" r:id="rId30" location="L72"/>
-    <hyperlink ref="A32" r:id="rId31" location="L45"/>
-    <hyperlink ref="A33" r:id="rId32" location="L57"/>
-    <hyperlink ref="A34" r:id="rId33" location="L42"/>
-    <hyperlink ref="A35" r:id="rId34" location="L60"/>
-    <hyperlink ref="A36" r:id="rId35" location="L56"/>
-    <hyperlink ref="A37" r:id="rId36" location="L72"/>
-    <hyperlink ref="A38" r:id="rId37" location="L81"/>
-    <hyperlink ref="A39" r:id="rId38" location="L17"/>
-    <hyperlink ref="A40" r:id="rId39" location="L17"/>
-    <hyperlink ref="A41" r:id="rId40" location="L29"/>
-    <hyperlink ref="A42" r:id="rId41" location="L29"/>
-    <hyperlink ref="A43" r:id="rId42" location="L31"/>
-    <hyperlink ref="A44" r:id="rId43" location="L35"/>
-    <hyperlink ref="A45" r:id="rId44" location="L42"/>
-    <hyperlink ref="A46" r:id="rId45" location="L42"/>
-    <hyperlink ref="A47" r:id="rId46" location="L44"/>
-    <hyperlink ref="A48" r:id="rId47" location="L48"/>
-    <hyperlink ref="A49" r:id="rId48" location="L56"/>
-    <hyperlink ref="A50" r:id="rId49" location="L79"/>
-    <hyperlink ref="A51" r:id="rId50" location="L74"/>
-    <hyperlink ref="A52" r:id="rId51" location="L81"/>
-    <hyperlink ref="A53" r:id="rId52" location="L37"/>
-    <hyperlink ref="A54" r:id="rId53" location="L55"/>
-    <hyperlink ref="A55" r:id="rId54" location="L19"/>
-    <hyperlink ref="A56" r:id="rId55" location="L30"/>
-    <hyperlink ref="A57" r:id="rId56" location="L40"/>
-    <hyperlink ref="A58" r:id="rId57" location="L41"/>
-    <hyperlink ref="A59" r:id="rId58" location="L42"/>
-    <hyperlink ref="A60" r:id="rId59" location="L53"/>
-    <hyperlink ref="A61" r:id="rId60" location="L56"/>
-  </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F121"/>
   </ignoredErrors>
 </worksheet>
 </file>